--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -808,13 +808,13 @@
         <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
-        <v>2.94</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>2.56</v>
       </c>
       <c r="I4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
         <v>2.86</v>
@@ -970,7 +970,7 @@
         <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
         <v>8.199999999999999</v>
@@ -1489,7 +1489,7 @@
         <v>1.78</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
@@ -1510,7 +1510,7 @@
         <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
         <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
         <v>1.95</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>2.08</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>55</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -1915,7 +1915,7 @@
         <v>1.91</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1936,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
         <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
@@ -1975,7 +1975,7 @@
         <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -2026,7 +2026,7 @@
         <v>11.5</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="J12" t="n">
         <v>5.8</v>
@@ -2041,13 +2041,13 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
         <v>1.6</v>
@@ -2056,13 +2056,13 @@
         <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
         <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2080,10 +2080,10 @@
         <v>140</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
         <v>1000</v>
@@ -2095,19 +2095,19 @@
         <v>230</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
         <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,7 +2158,7 @@
         <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
         <v>6.2</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
         <v>1.83</v>
@@ -2197,7 +2197,7 @@
         <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2215,16 +2215,16 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2239,22 +2239,22 @@
         <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2425,49 +2425,49 @@
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="I15" t="n">
         <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.8</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.7</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
         <v>11</v>
@@ -2491,28 +2491,28 @@
         <v>28</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
         <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
         <v>30</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.3</v>
@@ -2698,13 +2698,13 @@
         <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="I17" t="n">
         <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
         <v>1.88</v>
@@ -2974,7 +2974,7 @@
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>3.35</v>
@@ -3100,16 +3100,16 @@
         <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>3.85</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.55</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
         <v>2.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
         <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
         <v>2.86</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y4" t="n">
         <v>8.4</v>
@@ -1000,7 +1000,7 @@
         <v>16.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
@@ -1012,7 +1012,7 @@
         <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
         <v>24</v>
@@ -1024,25 +1024,25 @@
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
         <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
         <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN4" t="n">
         <v>75</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G8" t="n">
         <v>8.199999999999999</v>
@@ -1621,7 +1621,7 @@
         <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>2.24</v>
@@ -1759,10 +1759,10 @@
         <v>2.28</v>
       </c>
       <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>18</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G11" t="n">
         <v>4.8</v>
@@ -1891,13 +1891,13 @@
         <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.91</v>
@@ -1936,43 +1936,43 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="n">
         <v>70</v>
@@ -1987,7 +1987,7 @@
         <v>75</v>
       </c>
       <c r="AO11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G12" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>1.58</v>
@@ -2074,13 +2074,13 @@
         <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AB12" t="n">
         <v>9.6</v>
@@ -2089,7 +2089,7 @@
         <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="n">
         <v>230</v>
@@ -2101,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
         <v>170</v>
@@ -2113,7 +2113,7 @@
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>190</v>
@@ -2185,7 +2185,7 @@
         <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
         <v>2.06</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>21</v>
@@ -2425,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
         <v>1.55</v>
@@ -2437,7 +2437,7 @@
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,28 +2446,28 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q15" t="n">
         <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q16" t="n">
         <v>2.24</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G17" t="n">
         <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J17" t="n">
         <v>4.7</v>
@@ -2968,13 +2968,13 @@
         <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I19" t="n">
         <v>2.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>3.35</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
         <v>2.18</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>2.46</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="I3" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>3.95</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>1.45</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="J4" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.58</v>
+        <v>1.54</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.8</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>1.78</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>1.35</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>1.33</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
         <v>1.95</v>
@@ -1753,22 +1753,22 @@
         <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
         <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,37 +1801,37 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1840,19 +1840,19 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>1.07</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1939,13 +1939,13 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1957,10 +1957,10 @@
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1969,22 +1969,22 @@
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,16 +2020,16 @@
         <v>1.33</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>1.05</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="K12" t="n">
         <v>6.4</v>
@@ -2041,28 +2041,28 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>1.03</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,55 +2071,55 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
         <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2161,10 +2161,10 @@
         <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2215,43 +2215,43 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
         <v>1.55</v>
@@ -2434,10 +2434,10 @@
         <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,28 +2446,28 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2479,31 +2479,31 @@
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.24</v>
@@ -2698,16 +2698,16 @@
         <v>1.49</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="I17" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
         <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
         <v>1.88</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="G19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.25</v>
       </c>
       <c r="K19" t="n">
         <v>3.35</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,19 +3100,19 @@
         <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.46</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.45</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J4" t="n">
         <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.54</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.83</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.35</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
         <v>2.04</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.33</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.8</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
         <v>1.95</v>
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
         <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,37 +1801,37 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1843,16 +1843,16 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.07</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1957,34 +1957,34 @@
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="G12" t="n">
         <v>1.36</v>
       </c>
       <c r="H12" t="n">
-        <v>1.05</v>
+        <v>11.5</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>5.7</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2041,28 +2041,28 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,43 +2071,43 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2116,10 +2116,10 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2158,16 +2158,16 @@
         <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I13" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.06</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
@@ -2215,13 +2215,13 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
         <v>9.800000000000001</v>
@@ -2251,10 +2251,10 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="H15" t="n">
         <v>1.55</v>
@@ -2434,10 +2434,10 @@
         <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>8.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,28 +2446,28 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB15" t="n">
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="Q16" t="n">
         <v>2.24</v>
@@ -2695,19 +2695,19 @@
         <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
         <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>60</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2962,23 +2962,23 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G20" t="n">
         <v>2.22</v>
@@ -3106,13 +3106,13 @@
         <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
         <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q5" t="n">
         <v>2.48</v>
@@ -1216,10 +1216,10 @@
         <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>6.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>2.04</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1756,7 +1756,7 @@
         <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
@@ -1885,16 +1885,16 @@
         <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.75</v>
@@ -1927,7 +1927,7 @@
         <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1966,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>120</v>
@@ -1984,10 +1984,10 @@
         <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
         <v>1.6</v>
@@ -2059,10 +2059,10 @@
         <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         <v>130</v>
       </c>
       <c r="AA12" t="n">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
         <v>13.5</v>
@@ -2092,10 +2092,10 @@
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2104,10 +2104,10 @@
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2116,7 +2116,7 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
         <v>4.9</v>
@@ -2164,7 +2164,7 @@
         <v>6.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
@@ -2185,7 +2185,7 @@
         <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2455,13 +2455,13 @@
         <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
         <v>1.77</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
         <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA15" t="n">
         <v>15.5</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
         <v>1.48</v>
@@ -2701,13 +2701,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q17" t="n">
         <v>1.87</v>
@@ -2965,7 +2965,7 @@
         <v>2.96</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
         <v>2.62</v>
@@ -3100,7 +3100,7 @@
         <v>2.16</v>
       </c>
       <c r="G20" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H20" t="n">
         <v>3.7</v>
@@ -3109,10 +3109,10 @@
         <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,127 +658,127 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
       </c>
-      <c r="K2" t="n">
-        <v>950</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
         <v>14</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AE4" t="n">
         <v>32</v>
       </c>
-      <c r="AB4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>38</v>
-      </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>65</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>140</v>
-      </c>
       <c r="AK4" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P5" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.54</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,42 +1733,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="I10" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,58 +1801,58 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="I11" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2008,62 +2008,62 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.32</v>
+        <v>4.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.37</v>
+        <v>4.7</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>1.94</v>
       </c>
       <c r="I12" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>5.6</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.02</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
         <v>26</v>
       </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>470</v>
-      </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.9</v>
+        <v>75</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -2143,61 +2143,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J13" t="n">
         <v>5.6</v>
       </c>
-      <c r="I13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,43 +2206,43 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>470</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AG13" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AH13" t="n">
         <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2251,10 +2251,10 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,42 +2273,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,61 +2413,61 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>6.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>1.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.78</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.44</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1.48</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16</v>
+        <v>2.96</v>
       </c>
       <c r="G20" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,135 +3208,270 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Independiente Yumbo</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Real Cartagena</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>1.04</v>
       </c>
-      <c r="G21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.04</v>
       </c>
-      <c r="I21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="n">
         <v>1.01</v>
       </c>
-      <c r="K21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>1.01</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,13 +949,13 @@
         <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1009,7 +1009,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
         <v>32</v>
@@ -1075,13 +1075,13 @@
         <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J5" t="n">
         <v>2.96</v>
@@ -1090,13 +1090,13 @@
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.55</v>
@@ -1117,10 +1117,10 @@
         <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W5" t="n">
         <v>1.26</v>
@@ -1228,10 +1228,10 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>1.91</v>
+        <v>2.64</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1240,10 +1240,10 @@
         <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="R6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
         <v>5.1</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>1.5</v>
@@ -1261,58 +1261,58 @@
         <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="n">
         <v>48</v>
       </c>
-      <c r="AF6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>70</v>
       </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>80</v>
-      </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -1345,115 +1345,115 @@
         <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H7" t="n">
         <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
         <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="G9" t="n">
-        <v>6.8</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.81</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>14.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,105 +1868,105 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="I11" t="n">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1978,22 +1978,22 @@
         <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,42 +2003,42 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="J12" t="n">
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,58 +2071,58 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2143,61 +2143,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.32</v>
+        <v>3.6</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>12.5</v>
+        <v>2.24</v>
       </c>
       <c r="J13" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
         <v>130</v>
       </c>
-      <c r="AA13" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>160</v>
-      </c>
       <c r="AN13" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2278,37 +2278,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>1.95</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>1.97</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.800000000000001</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,42 +2408,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>1.31</v>
       </c>
       <c r="G16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K16" t="n">
         <v>6.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2581,28 +2581,28 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="S16" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2614,61 +2614,61 @@
         <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.5</v>
+        <v>130</v>
       </c>
       <c r="AA16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
-        <v>200</v>
+        <v>12.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.48</v>
+        <v>6.8</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>1.55</v>
       </c>
       <c r="I18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
         <v>11</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.96</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>1.47</v>
       </c>
       <c r="H20" t="n">
-        <v>2.62</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,135 +3343,405 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Independiente Yumbo</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Real Cartagena</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F24" t="n">
         <v>1.04</v>
       </c>
-      <c r="G22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.04</v>
       </c>
-      <c r="I22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J24" t="n">
         <v>1.01</v>
       </c>
-      <c r="K22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="K24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q24" t="n">
         <v>1.01</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -988,7 +988,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1090,7 +1090,7 @@
         <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
@@ -1123,7 +1123,7 @@
         <v>1.79</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>8.6</v>
@@ -1213,7 +1213,7 @@
         <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1228,19 +1228,19 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
         <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
@@ -1249,10 +1249,10 @@
         <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
         <v>1.5</v>
@@ -1261,7 +1261,7 @@
         <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H8" t="n">
         <v>1.32</v>
@@ -1492,7 +1492,7 @@
         <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1501,22 +1501,22 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.32</v>
@@ -1531,7 +1531,7 @@
         <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
         <v>6.8</v>
@@ -1573,10 +1573,10 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AM8" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G9" t="n">
         <v>1.53</v>
@@ -1627,7 +1627,7 @@
         <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1648,10 +1648,10 @@
         <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T9" t="n">
         <v>1.05</v>
@@ -1885,31 +1885,31 @@
         <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
         <v>1.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
         <v>1.66</v>
@@ -1918,16 +1918,16 @@
         <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
         <v>2.18</v>
@@ -1936,58 +1936,58 @@
         <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
         <v>2.06</v>
@@ -2035,94 +2035,94 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
         <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -2161,103 +2161,103 @@
         <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
         <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO13" t="n">
         <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
         <v>4.7</v>
@@ -2305,28 +2305,28 @@
         <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
         <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.84</v>
@@ -2335,64 +2335,64 @@
         <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="n">
         <v>75</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>85</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AO14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2440,16 +2440,16 @@
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
         <v>2.04</v>
@@ -2458,10 +2458,10 @@
         <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
         <v>1.84</v>
@@ -2470,10 +2470,10 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X15" t="n">
         <v>17.5</v>
@@ -2521,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="n">
         <v>11.5</v>
@@ -2557,37 +2557,37 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="n">
         <v>12.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q16" t="n">
         <v>1.6</v>
@@ -2605,10 +2605,10 @@
         <v>1.85</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="X16" t="n">
         <v>28</v>
@@ -2617,22 +2617,22 @@
         <v>44</v>
       </c>
       <c r="Z16" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="n">
         <v>8.6</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.01</v>
       </c>
-      <c r="K17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2845,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -2863,22 +2863,22 @@
         <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="T18" t="n">
         <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X18" t="n">
         <v>28</v>
@@ -2902,7 +2902,7 @@
         <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>55</v>
@@ -2929,10 +2929,10 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
         <v>1.47</v>
@@ -3106,7 +3106,7 @@
         <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J20" t="n">
         <v>4.6</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
@@ -3382,7 +3382,7 @@
         <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
         <v>2.58</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -706,7 +706,7 @@
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>2.46</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
         <v>2.6</v>
       </c>
       <c r="J4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
@@ -967,10 +967,10 @@
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -1015,7 +1015,7 @@
         <v>32</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
         <v>16</v>
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="I5" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
@@ -1108,7 +1108,7 @@
         <v>2.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
         <v>5.3</v>
@@ -1117,28 +1117,28 @@
         <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
@@ -1147,37 +1147,37 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -1240,7 +1240,7 @@
         <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
@@ -1252,7 +1252,7 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
         <v>1.5</v>
@@ -1501,7 +1501,7 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
@@ -1510,7 +1510,7 @@
         <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -1795,7 +1795,7 @@
         <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
         <v>1.74</v>
@@ -1888,7 +1888,7 @@
         <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I11" t="n">
         <v>1.84</v>
@@ -1921,13 +1921,13 @@
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
         <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>2.18</v>
@@ -2029,7 +2029,7 @@
         <v>2.22</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
         <v>3.8</v>
@@ -2041,13 +2041,13 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
         <v>1.95</v>
@@ -2056,13 +2056,13 @@
         <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
         <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
         <v>1.81</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
         <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2182,22 +2182,22 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>1.8</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
@@ -2227,7 +2227,7 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
         <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I14" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -2317,7 +2317,7 @@
         <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -2326,25 +2326,25 @@
         <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W14" t="n">
         <v>1.27</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2371,25 +2371,25 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="G15" t="n">
         <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I15" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2446,10 +2446,10 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
         <v>2.04</v>
@@ -2458,10 +2458,10 @@
         <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
         <v>1.84</v>
@@ -2470,7 +2470,7 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
         <v>2.42</v>
@@ -2494,7 +2494,7 @@
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK15" t="n">
         <v>20</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2590,37 +2590,37 @@
         <v>2.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
         <v>1.58</v>
       </c>
       <c r="S16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
         <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2629,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="n">
         <v>200</v>
@@ -2641,10 +2641,10 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
         <v>12.5</v>
@@ -2656,7 +2656,7 @@
         <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN16" t="n">
         <v>5.4</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.74</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="R17" t="n">
         <v>1.13</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
@@ -2740,16 +2740,16 @@
         <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,13 +2758,13 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2773,10 +2773,10 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2830,19 +2830,19 @@
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.55</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.6</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2869,16 +2869,16 @@
         <v>2.66</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
         <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X18" t="n">
         <v>28</v>
@@ -2902,10 +2902,10 @@
         <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -2980,94 +2980,94 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q19" t="n">
         <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
         <v>1.47</v>
@@ -3112,19 +3112,19 @@
         <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P20" t="n">
         <v>2.02</v>
@@ -3133,76 +3133,76 @@
         <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3370,13 +3370,13 @@
         <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -3505,13 +3505,13 @@
         <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="G2" t="n">
         <v>2.32</v>
@@ -676,13 +676,13 @@
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -697,7 +697,7 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
         <v>2.46</v>
@@ -943,7 +943,7 @@
         <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
         <v>2.6</v>
@@ -961,22 +961,22 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
         <v>1.78</v>
@@ -994,55 +994,55 @@
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
         <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
         <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
         <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="AN5" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
         <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -1240,7 +1240,7 @@
         <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
@@ -1345,7 +1345,7 @@
         <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>2.34</v>
@@ -1357,7 +1357,7 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1372,10 +1372,10 @@
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G8" t="n">
         <v>17.5</v>
@@ -1486,10 +1486,10 @@
         <v>1.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
         <v>5.7</v>
@@ -1510,7 +1510,7 @@
         <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1519,13 +1519,13 @@
         <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="W8" t="n">
         <v>1.06</v>
@@ -1615,13 +1615,13 @@
         <v>1.31</v>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="J9" t="n">
         <v>4.7</v>
@@ -1648,7 +1648,7 @@
         <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
         <v>1.93</v>
@@ -1660,10 +1660,10 @@
         <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1750,55 +1750,55 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
         <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1885,16 +1885,16 @@
         <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
         <v>1.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1924,52 +1924,52 @@
         <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
         <v>2.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -2053,16 +2053,16 @@
         <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.81</v>
@@ -2074,46 +2074,46 @@
         <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2182,16 +2182,16 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T13" t="n">
         <v>1.79</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
@@ -2224,7 +2224,7 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>24</v>
@@ -2239,22 +2239,22 @@
         <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
         <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I14" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -2317,7 +2317,7 @@
         <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -2326,7 +2326,7 @@
         <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.83</v>
@@ -2335,7 +2335,7 @@
         <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>1.27</v>
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2386,7 +2386,7 @@
         <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
         <v>80</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G15" t="n">
         <v>1.7</v>
@@ -2431,13 +2431,13 @@
         <v>5.9</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
@@ -2470,61 +2470,61 @@
         <v>2.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W15" t="n">
         <v>2.42</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>9.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
         <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>120</v>
       </c>
       <c r="AN15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2569,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K16" t="n">
         <v>6.2</v>
@@ -2587,10 +2587,10 @@
         <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R16" t="n">
         <v>1.58</v>
@@ -2608,61 +2608,61 @@
         <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="n">
         <v>8.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>170</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
@@ -2692,70 +2692,70 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P17" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Q17" t="n">
         <v>2.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>2.66</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
@@ -2767,10 +2767,10 @@
         <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
         <v>970</v>
@@ -2779,25 +2779,25 @@
         <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2830,19 +2830,19 @@
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I18" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2857,13 +2857,13 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
         <v>2.66</v>
@@ -2875,37 +2875,37 @@
         <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="W18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -2929,10 +2929,10 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2983,31 +2983,31 @@
         <v>1.46</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.38</v>
       </c>
       <c r="P19" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
         <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
         <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>1.35</v>
@@ -3016,58 +3016,58 @@
         <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
         <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE19" t="n">
         <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -3118,16 +3118,16 @@
         <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
         <v>1.89</v>
@@ -3136,7 +3136,7 @@
         <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
         <v>2.1</v>
@@ -3145,61 +3145,61 @@
         <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L21" t="n">
         <v>1.01</v>
       </c>
-      <c r="K21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -3385,16 +3385,16 @@
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
         <v>1.71</v>
@@ -3403,76 +3403,76 @@
         <v>2.28</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
         <v>2.6</v>
@@ -3514,100 +3514,100 @@
         <v>2.72</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.01</v>
       </c>
-      <c r="K24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q2" t="n">
         <v>2.46</v>
@@ -961,13 +961,13 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -991,13 +991,13 @@
         <v>1.44</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AA4" t="n">
         <v>50</v>
@@ -1075,7 +1075,7 @@
         <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
@@ -1084,7 +1084,7 @@
         <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K5" t="n">
         <v>3.15</v>
@@ -1111,7 +1111,7 @@
         <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
         <v>2.16</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
         <v>2.9</v>
@@ -1231,7 +1231,7 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
         <v>1.51</v>
@@ -1249,16 +1249,16 @@
         <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
         <v>9.199999999999999</v>
@@ -1297,7 +1297,7 @@
         <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
         <v>48</v>
@@ -1372,7 +1372,7 @@
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
         <v>2.08</v>
@@ -1486,7 +1486,7 @@
         <v>1.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
         <v>4.7</v>
@@ -1507,7 +1507,7 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
         <v>1.98</v>
@@ -1519,13 +1519,13 @@
         <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W8" t="n">
         <v>1.06</v>
@@ -1552,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
         <v>1.37</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.93</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
@@ -1777,16 +1777,16 @@
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
         <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1795,10 +1795,10 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
         <v>970</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
         <v>970</v>
@@ -1888,13 +1888,13 @@
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="I11" t="n">
         <v>1.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1921,19 +1921,19 @@
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>2.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
@@ -1969,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -2059,10 +2059,10 @@
         <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
         <v>1.81</v>
@@ -2182,7 +2182,7 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
         <v>2</v>
@@ -2257,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="n">
         <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I14" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
@@ -2335,7 +2335,7 @@
         <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W14" t="n">
         <v>1.27</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H15" t="n">
         <v>5.9</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
         <v>6.2</v>
@@ -2608,7 +2608,7 @@
         <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X16" t="n">
         <v>24</v>
@@ -2629,10 +2629,10 @@
         <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE16" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
         <v>8.6</v>
@@ -2641,7 +2641,7 @@
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
         <v>150</v>
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
@@ -2704,7 +2704,7 @@
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="K17" t="n">
         <v>3.15</v>
@@ -2734,10 +2734,10 @@
         <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V17" t="n">
         <v>1.38</v>
@@ -2770,7 +2770,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
         <v>970</v>
@@ -2836,7 +2836,7 @@
         <v>1.55</v>
       </c>
       <c r="I18" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J18" t="n">
         <v>4.7</v>
@@ -2869,13 +2869,13 @@
         <v>2.66</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="W18" t="n">
         <v>1.17</v>
@@ -2884,40 +2884,40 @@
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
         <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="19">
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.38</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H20" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I20" t="n">
         <v>9.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3133,7 +3133,7 @@
         <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
         <v>3.2</v>
@@ -3142,16 +3142,16 @@
         <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>29</v>
@@ -3163,7 +3163,7 @@
         <v>390</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
@@ -3190,13 +3190,13 @@
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AL20" t="n">
         <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
         <v>7.6</v>
@@ -3244,7 +3244,7 @@
         <v>3.85</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="K21" t="n">
         <v>3.25</v>
@@ -3274,10 +3274,10 @@
         <v>1.05</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
         <v>1.35</v>
@@ -3370,10 +3370,10 @@
         <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>3.95</v>
@@ -3394,7 +3394,7 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
         <v>1.71</v>
@@ -3406,31 +3406,31 @@
         <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
         <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB22" t="n">
         <v>8.800000000000001</v>
@@ -3454,7 +3454,7 @@
         <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
         <v>34</v>
@@ -3505,13 +3505,13 @@
         <v>3.05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="I23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3553,7 +3553,7 @@
         <v>1.58</v>
       </c>
       <c r="W23" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X23" t="n">
         <v>11.5</v>
@@ -3574,10 +3574,10 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -3649,7 +3649,7 @@
         <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K24" t="n">
         <v>5.6</v>
@@ -3685,7 +3685,7 @@
         <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W24" t="n">
         <v>1.23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>1.86</v>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>7.4</v>
@@ -682,10 +682,10 @@
         <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -697,16 +697,16 @@
         <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="R2" t="n">
         <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>2.46</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -718,7 +718,7 @@
         <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -940,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
         <v>2.6</v>
@@ -961,16 +961,16 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
         <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
@@ -988,7 +988,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
         <v>15.5</v>
@@ -1000,7 +1000,7 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
@@ -1075,13 +1075,13 @@
         <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H5" t="n">
         <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.98</v>
@@ -1090,37 +1090,37 @@
         <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R5" t="n">
         <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U5" t="n">
         <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W5" t="n">
         <v>1.24</v>
@@ -1153,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1210,19 +1210,19 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1240,25 +1240,25 @@
         <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
         <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>9.199999999999999</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1360,43 +1360,43 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
         <v>3.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
         <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>17.5</v>
@@ -1507,19 +1507,19 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
         <v>1.05</v>
@@ -1759,10 +1759,10 @@
         <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.33</v>
@@ -1771,22 +1771,22 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
         <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1795,13 +1795,13 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
@@ -1885,10 +1885,10 @@
         <v>5.7</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I11" t="n">
         <v>1.84</v>
@@ -1903,37 +1903,37 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
         <v>2.94</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
         <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
         <v>2.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -1963,7 +1963,7 @@
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
         <v>32</v>
@@ -2020,10 +2020,10 @@
         <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
         <v>2.22</v>
@@ -2050,7 +2050,7 @@
         <v>1.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
         <v>1.3</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
         <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2200,7 +2200,7 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W13" t="n">
         <v>1.37</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
@@ -2227,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2239,7 +2239,7 @@
         <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I14" t="n">
         <v>1.97</v>
@@ -2341,7 +2341,7 @@
         <v>1.27</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2377,7 +2377,7 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="n">
         <v>50</v>
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="G15" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="H15" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="W15" t="n">
-        <v>2.42</v>
+        <v>3.7</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG15" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.04</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>3.7</v>
+        <v>2.48</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="AB16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2836,7 +2836,7 @@
         <v>1.55</v>
       </c>
       <c r="I18" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J18" t="n">
         <v>4.7</v>
@@ -2869,7 +2869,7 @@
         <v>2.66</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U18" t="n">
         <v>2.1</v>
@@ -2902,7 +2902,7 @@
         <v>10.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
@@ -2998,7 +2998,7 @@
         <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
         <v>4.2</v>
@@ -3013,7 +3013,7 @@
         <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3037,7 +3037,7 @@
         <v>16.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -3049,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -3067,7 +3067,7 @@
         <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H20" t="n">
         <v>8.6</v>
@@ -3109,10 +3109,10 @@
         <v>9.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3127,13 +3127,13 @@
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
         <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
         <v>3.2</v>
@@ -3160,7 +3160,7 @@
         <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AB20" t="n">
         <v>7.8</v>
@@ -3196,7 +3196,7 @@
         <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
         <v>7.6</v>
@@ -3262,7 +3262,7 @@
         <v>1.55</v>
       </c>
       <c r="P21" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q21" t="n">
         <v>2.44</v>
@@ -3358,34 +3358,34 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="I22" t="n">
-        <v>3.95</v>
+        <v>2.72</v>
       </c>
       <c r="J22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.3</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3394,85 +3394,85 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
       <c r="AE22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>55</v>
       </c>
-      <c r="AF22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>34</v>
-      </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AO22" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3493,34 +3493,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>3.15</v>
+        <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>2.68</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
@@ -3529,85 +3529,85 @@
         <v>3.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>34</v>
       </c>
-      <c r="AF23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL23" t="n">
         <v>50</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>60</v>
-      </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -3742,6 +3742,411 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>510</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>980</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.26</v>
+        <v>2.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>5.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
         <v>970</v>
@@ -1084,28 +1084,28 @@
         <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
         <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.17</v>
@@ -1114,13 +1114,13 @@
         <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
         <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
         <v>1.24</v>
@@ -1210,13 +1210,13 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1231,7 +1231,7 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O6" t="n">
         <v>1.51</v>
@@ -1246,19 +1246,19 @@
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
         <v>9.199999999999999</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
         <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="I7" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1360,25 +1360,25 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
         <v>3.85</v>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W7" t="n">
         <v>1.4</v>
@@ -1417,7 +1417,7 @@
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
@@ -1426,10 +1426,10 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
         <v>65</v>
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="H8" t="n">
         <v>1.32</v>
@@ -1492,25 +1492,25 @@
         <v>4.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1519,10 +1519,10 @@
         <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
         <v>3.55</v>
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="G9" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.2</v>
       </c>
-      <c r="I9" t="n">
-        <v>42</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="O9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="X9" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1780,13 +1780,13 @@
         <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1795,10 +1795,10 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
         <v>16.5</v>
@@ -1816,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
         <v>1.84</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1906,10 +1906,10 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
         <v>1.66</v>
@@ -1921,19 +1921,19 @@
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
         <v>2.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
@@ -1948,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
         <v>27</v>
@@ -1972,7 +1972,7 @@
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK11" t="n">
         <v>140</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
         <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2038,25 +2038,25 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.78</v>
@@ -2065,64 +2065,64 @@
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W12" t="n">
         <v>1.32</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2173,10 +2173,10 @@
         <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2200,19 +2200,19 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
@@ -2221,13 +2221,13 @@
         <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2257,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
         <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I14" t="n">
         <v>1.97</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H15" t="n">
         <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="K15" t="n">
         <v>6.2</v>
@@ -2470,22 +2470,22 @@
         <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="n">
         <v>110</v>
       </c>
       <c r="AA15" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AB15" t="n">
         <v>9.6</v>
@@ -2494,10 +2494,10 @@
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="n">
         <v>8.6</v>
@@ -2506,10 +2506,10 @@
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
@@ -2524,7 +2524,7 @@
         <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO15" t="n">
         <v>230</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G16" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2581,37 +2581,37 @@
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
@@ -2623,10 +2623,10 @@
         <v>200</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2650,7 +2650,7 @@
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2719,7 +2719,7 @@
         <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="P17" t="n">
         <v>1.42</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
         <v>5.3</v>
@@ -2857,28 +2857,28 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
         <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="W18" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2887,13 +2887,13 @@
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA18" t="n">
         <v>14.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2917,7 +2917,7 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
         <v>2.44</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
         <v>3.8</v>
@@ -3013,7 +3013,7 @@
         <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3025,7 +3025,7 @@
         <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
         <v>9.4</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
         <v>1.47</v>
@@ -3106,7 +3106,7 @@
         <v>8.6</v>
       </c>
       <c r="I20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J20" t="n">
         <v>4.8</v>
@@ -3136,13 +3136,13 @@
         <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
         <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
@@ -3160,7 +3160,7 @@
         <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AB20" t="n">
         <v>7.8</v>
@@ -3172,7 +3172,7 @@
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="n">
         <v>9.6</v>
@@ -3505,13 +3505,13 @@
         <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3538,34 +3538,34 @@
         <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
         <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z23" t="n">
         <v>27</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
         <v>8.800000000000001</v>
@@ -3598,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM23" t="n">
         <v>150</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="H24" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="I24" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J24" t="n">
         <v>2.78</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,16 +3661,16 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>1.13</v>
@@ -3685,10 +3685,10 @@
         <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3775,7 +3775,7 @@
         <v>1.35</v>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H25" t="n">
         <v>11</v>
@@ -3784,13 +3784,13 @@
         <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3802,28 +3802,28 @@
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="T25" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V25" t="n">
         <v>1.08</v>
       </c>
       <c r="W25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3832,10 +3832,10 @@
         <v>36</v>
       </c>
       <c r="Z25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AB25" t="n">
         <v>7.8</v>
@@ -3847,7 +3847,7 @@
         <v>48</v>
       </c>
       <c r="AE25" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="n">
         <v>7.8</v>
@@ -3871,13 +3871,13 @@
         <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="n">
         <v>6.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -3910,7 +3910,7 @@
         <v>2.38</v>
       </c>
       <c r="G26" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -3919,7 +3919,7 @@
         <v>3.65</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>3.4</v>
@@ -3940,7 +3940,7 @@
         <v>1.79</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
         <v>1.3</v>
@@ -3955,10 +3955,10 @@
         <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X26" t="n">
         <v>13.5</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="H27" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.76</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4141,10 +4141,10 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -670,7 +670,7 @@
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
         <v>4.6</v>
@@ -679,7 +679,7 @@
         <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.75</v>
@@ -694,13 +694,13 @@
         <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.15</v>
@@ -718,7 +718,7 @@
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -841,7 +841,7 @@
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
         <v>3.15</v>
@@ -946,7 +946,7 @@
         <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -958,7 +958,7 @@
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>3.5</v>
@@ -985,13 +985,13 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1090,55 +1090,55 @@
         <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
         <v>1.71</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.2</v>
@@ -1147,13 +1147,13 @@
         <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1162,22 +1162,22 @@
         <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM5" t="n">
         <v>290</v>
       </c>
       <c r="AN5" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1360,10 +1360,10 @@
         <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>3.2</v>
@@ -1372,10 +1372,10 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.29</v>
@@ -1384,16 +1384,16 @@
         <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
         <v>13.5</v>
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
@@ -1417,7 +1417,7 @@
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
@@ -1429,25 +1429,25 @@
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I8" t="n">
         <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
         <v>5.6</v>
@@ -1501,7 +1501,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1510,7 +1510,7 @@
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
         <v>1.32</v>
@@ -1522,7 +1522,7 @@
         <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V8" t="n">
         <v>3.55</v>
@@ -1615,7 +1615,7 @@
         <v>1.37</v>
       </c>
       <c r="G9" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
         <v>7.6</v>
@@ -1630,7 +1630,7 @@
         <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -1648,7 +1648,7 @@
         <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>2.1</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
@@ -1780,7 +1780,7 @@
         <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1789,16 +1789,16 @@
         <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
         <v>16.5</v>
@@ -1807,7 +1807,7 @@
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="I11" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,52 +1906,52 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>1.23</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.12</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.18</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -1960,34 +1960,34 @@
         <v>27</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AK11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL11" t="n">
         <v>140</v>
       </c>
-      <c r="AL11" t="n">
-        <v>150</v>
-      </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2044,19 +2044,19 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T12" t="n">
         <v>1.78</v>
@@ -2065,10 +2065,10 @@
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
@@ -2158,10 +2158,10 @@
         <v>3.65</v>
       </c>
       <c r="H13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.24</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.28</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2176,34 +2176,34 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.33</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
@@ -2215,19 +2215,19 @@
         <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB13" t="n">
         <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
@@ -2257,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>1.94</v>
       </c>
       <c r="I14" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2455,13 +2455,13 @@
         <v>2.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
         <v>2.04</v>
@@ -2488,13 +2488,13 @@
         <v>480</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>190</v>
@@ -2506,7 +2506,7 @@
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI15" t="n">
         <v>160</v>
@@ -2524,7 +2524,7 @@
         <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO15" t="n">
         <v>230</v>
@@ -2590,7 +2590,7 @@
         <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H18" t="n">
         <v>1.51</v>
@@ -2842,7 +2842,7 @@
         <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -2866,19 +2866,19 @@
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T18" t="n">
         <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
         <v>2.84</v>
       </c>
       <c r="W18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.45</v>
@@ -3001,13 +3001,13 @@
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
         <v>1.35</v>
@@ -3103,16 +3103,16 @@
         <v>1.47</v>
       </c>
       <c r="H20" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3127,7 +3127,7 @@
         <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
         <v>1.89</v>
@@ -3136,13 +3136,13 @@
         <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
@@ -3151,13 +3151,13 @@
         <v>3.1</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA20" t="n">
         <v>370</v>
@@ -3544,10 +3544,10 @@
         <v>4.3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V23" t="n">
         <v>1.34</v>
@@ -3559,7 +3559,7 @@
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>27</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
         <v>4.9</v>
@@ -3646,7 +3646,7 @@
         <v>2.12</v>
       </c>
       <c r="I24" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="J24" t="n">
         <v>2.78</v>
@@ -3685,10 +3685,10 @@
         <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="W24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G25" t="n">
         <v>1.38</v>
@@ -3781,13 +3781,13 @@
         <v>11</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="J25" t="n">
         <v>5.5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.35</v>
@@ -3802,25 +3802,25 @@
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
         <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U25" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V25" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W25" t="n">
         <v>3.65</v>
@@ -3829,13 +3829,13 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
         <v>120</v>
       </c>
       <c r="AA25" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AB25" t="n">
         <v>7.8</v>
@@ -3847,7 +3847,7 @@
         <v>48</v>
       </c>
       <c r="AE25" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="n">
         <v>7.8</v>
@@ -3859,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.5</v>
@@ -3871,13 +3871,13 @@
         <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN25" t="n">
         <v>6.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26">
@@ -3946,7 +3946,7 @@
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T26" t="n">
         <v>1.79</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G27" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H27" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
         <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V27" t="n">
         <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
@@ -4120,11 +4120,11 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
       <c r="AH27" t="n">
         <v>1000</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
@@ -4141,10 +4141,10 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -670,55 +670,55 @@
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
         <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
         <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
         <v>970</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
         <v>3.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
         <v>2.76</v>
@@ -955,19 +955,19 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
@@ -976,22 +976,22 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
         <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W4" t="n">
         <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
@@ -1000,25 +1000,25 @@
         <v>970</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
         <v>970</v>
@@ -1027,10 +1027,10 @@
         <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1039,10 +1039,10 @@
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="G5" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="O5" t="n">
         <v>1.56</v>
@@ -1105,28 +1105,28 @@
         <v>1.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="V5" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y5" t="n">
         <v>6.6</v>
@@ -1141,10 +1141,10 @@
         <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1153,7 +1153,7 @@
         <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
@@ -1162,19 +1162,19 @@
         <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>290</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AO5" t="n">
         <v>28</v>
@@ -1210,10 +1210,10 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I6" t="n">
         <v>2.92</v>
@@ -1231,88 +1231,88 @@
         <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X6" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
         <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1357,7 +1357,7 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
@@ -1372,13 +1372,13 @@
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
         <v>3.85</v>
@@ -1393,61 +1393,61 @@
         <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
         <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL7" t="n">
         <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
         <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1501,19 +1501,19 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
         <v>3.55</v>
@@ -1522,16 +1522,16 @@
         <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W8" t="n">
         <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
         <v>6.8</v>
@@ -1540,22 +1540,22 @@
         <v>7.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>970</v>
       </c>
       <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>13</v>
       </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
       <c r="AE8" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1564,25 +1564,25 @@
         <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AL8" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AM8" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -1621,7 +1621,7 @@
         <v>7.6</v>
       </c>
       <c r="I9" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
         <v>4.8</v>
@@ -1633,7 +1633,7 @@
         <v>1.21</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
         <v>6.2</v>
@@ -1651,7 +1651,7 @@
         <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="T9" t="n">
         <v>1.71</v>
@@ -1660,16 +1660,16 @@
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
         <v>3.15</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,10 +1750,10 @@
         <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>4.3</v>
@@ -1765,7 +1765,7 @@
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1798,16 +1798,16 @@
         <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X10" t="n">
         <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1831,7 +1831,7 @@
         <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,91 +1882,91 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q11" t="n">
         <v>2.36</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
         <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB11" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2020,10 +2020,10 @@
         <v>3.65</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I12" t="n">
         <v>2.22</v>
@@ -2035,7 +2035,7 @@
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,19 +2047,19 @@
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
         <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
         <v>3.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
         <v>2.08</v>
@@ -2068,61 +2068,61 @@
         <v>1.81</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
         <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO12" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I13" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2170,28 +2170,28 @@
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
         <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
         <v>1.83</v>
@@ -2200,25 +2200,25 @@
         <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>7.8</v>
@@ -2233,10 +2233,10 @@
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2257,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2290,94 +2290,94 @@
         <v>4.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="I14" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
         <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
         <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="W14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA14" t="n">
         <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="n">
         <v>50</v>
@@ -2386,13 +2386,13 @@
         <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15">
@@ -2428,16 +2428,16 @@
         <v>1.36</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
         <v>5.8</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2446,55 +2446,55 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S15" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
         <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Z15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA15" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="AB15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
         <v>190</v>
@@ -2509,10 +2509,10 @@
         <v>32</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK15" t="n">
         <v>14.5</v>
@@ -2521,13 +2521,13 @@
         <v>36</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
         <v>1.86</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
         <v>2.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,43 +2623,43 @@
         <v>200</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="Q17" t="n">
         <v>2.66</v>
@@ -2731,37 +2731,37 @@
         <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
         <v>8.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
         <v>90</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2785,7 +2785,7 @@
         <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
         <v>100</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G18" t="n">
         <v>7.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="J18" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2863,46 +2863,46 @@
         <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
         <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="W18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
@@ -2911,7 +2911,7 @@
         <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
         <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
         <v>3.3</v>
@@ -2980,10 +2980,10 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
         <v>3.3</v>
@@ -2995,79 +2995,79 @@
         <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI19" t="n">
         <v>70</v>
       </c>
-      <c r="AB19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G20" t="n">
         <v>1.47</v>
@@ -3106,13 +3106,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>1.37</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -3133,16 +3133,16 @@
         <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
         <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
@@ -3154,52 +3154,52 @@
         <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="n">
         <v>85</v>
       </c>
       <c r="AA20" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="AB20" t="n">
         <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
         <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3238,25 +3238,25 @@
         <v>2.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="K21" t="n">
         <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="O21" t="n">
         <v>1.55</v>
@@ -3265,22 +3265,22 @@
         <v>1.49</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="R21" t="n">
         <v>1.17</v>
       </c>
       <c r="S21" t="n">
-        <v>1.05</v>
+        <v>4.9</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
         <v>1.55</v>
@@ -3289,52 +3289,52 @@
         <v>8.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AK21" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AL21" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
         <v>240</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
         <v>95</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="G22" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I22" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L22" t="n">
         <v>1.49</v>
@@ -3400,7 +3400,7 @@
         <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
@@ -3412,67 +3412,67 @@
         <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="X22" t="n">
         <v>11.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="n">
         <v>55</v>
       </c>
-      <c r="AK22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>60</v>
-      </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
         <v>3.55</v>
@@ -3541,34 +3541,34 @@
         <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V23" t="n">
         <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
@@ -3580,31 +3580,31 @@
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL23" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
         <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
         <v>65</v>
@@ -3640,7 +3640,7 @@
         <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>2.12</v>
@@ -3655,34 +3655,34 @@
         <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
         <v>1.59</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V24" t="n">
         <v>1.72</v>
@@ -3691,37 +3691,37 @@
         <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3730,10 +3730,10 @@
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>1.37</v>
       </c>
       <c r="G25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H25" t="n">
         <v>11</v>
@@ -3784,67 +3784,67 @@
         <v>11.5</v>
       </c>
       <c r="J25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>5.5</v>
       </c>
-      <c r="K25" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R25" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
         <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA25" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE25" t="n">
         <v>210</v>
@@ -3859,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.5</v>
@@ -3868,16 +3868,16 @@
         <v>15.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO25" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26">
@@ -3925,7 +3925,7 @@
         <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
@@ -3934,28 +3934,28 @@
         <v>3.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
         <v>1.3</v>
       </c>
       <c r="S26" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.79</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
         <v>1.66</v>
@@ -3964,55 +3964,55 @@
         <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -4072,28 +4072,28 @@
         <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
         <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>990</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>990</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.28</v>
+        <v>1.23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>970</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
         <v>3.15</v>
@@ -955,34 +955,34 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>1.89</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
         <v>1.56</v>
@@ -991,58 +991,58 @@
         <v>1.46</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
         <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
         <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.54</v>
+        <v>1.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.72</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.69</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AM5" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AN5" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>990</v>
       </c>
       <c r="H6" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.12</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>1.56</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>1.37</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI7" t="n">
         <v>48</v>
       </c>
-      <c r="AB7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,85 +1477,85 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>990</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.55</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
-        <v>2.48</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1564,25 +1564,25 @@
         <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>2.18</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>1.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.99</v>
+        <v>1.12</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>3.15</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,43 +1678,43 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>990</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>990</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>1.48</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,25 +1813,25 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>1.88</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.42</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>1.05</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2158,49 +2158,49 @@
         <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
         <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
         <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W13" t="n">
         <v>1.38</v>
@@ -2209,16 +2209,16 @@
         <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>7.8</v>
@@ -2227,16 +2227,16 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>40</v>
@@ -2257,7 +2257,7 @@
         <v>44</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,76 +2287,76 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H14" t="n">
         <v>2.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.04</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>10.5</v>
@@ -2371,7 +2371,7 @@
         <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>65</v>
       </c>
       <c r="AO14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="G15" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="H15" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2446,88 +2446,88 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.6</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.52</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W15" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AA15" t="n">
-        <v>520</v>
+        <v>990</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AD15" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.6</v>
+        <v>19.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>240</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16">
@@ -2560,106 +2560,106 @@
         <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I16" t="n">
         <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.86</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.87</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V16" t="n">
         <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,85 +2692,85 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.66</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.13</v>
       </c>
-      <c r="N17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S17" t="n">
-        <v>6.2</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
         <v>970</v>
@@ -2779,25 +2779,25 @@
         <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="G18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H18" t="n">
         <v>1.5</v>
@@ -2857,16 +2857,16 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
         <v>1.84</v>
@@ -2881,28 +2881,28 @@
         <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
@@ -2911,28 +2911,28 @@
         <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
         <v>3.65</v>
@@ -2980,94 +2980,94 @@
         <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>3.8</v>
+        <v>2.22</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V19" t="n">
         <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,109 +3097,109 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H20" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>1.89</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>2.54</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.48</v>
+        <v>1.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="R21" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>1.05</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I22" t="n">
         <v>2.88</v>
@@ -3385,7 +3385,7 @@
         <v>3.35</v>
       </c>
       <c r="L22" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>1.09</v>
@@ -3394,37 +3394,37 @@
         <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
         <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
         <v>11.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -3433,10 +3433,10 @@
         <v>46</v>
       </c>
       <c r="AB22" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
         <v>13</v>
@@ -3451,10 +3451,10 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
         <v>48</v>
@@ -3463,16 +3463,16 @@
         <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO22" t="n">
         <v>38</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -3505,13 +3505,13 @@
         <v>2.24</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3520,94 +3520,94 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
         <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>2.28</v>
       </c>
       <c r="T23" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,91 +3637,91 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="S24" t="n">
-        <v>3.45</v>
+        <v>1.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.81</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3730,10 +3730,10 @@
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3775,109 +3775,109 @@
         <v>1.37</v>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
         <v>11.5</v>
       </c>
       <c r="J25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K25" t="n">
         <v>5.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V25" t="n">
         <v>1.09</v>
       </c>
       <c r="W25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
         <v>110</v>
       </c>
       <c r="AA25" t="n">
-        <v>480</v>
+        <v>630</v>
       </c>
       <c r="AB25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF25" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>7.8</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI25" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>310</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="G26" t="n">
         <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>1.29</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>1.78</v>
+        <v>1.29</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>1.36</v>
       </c>
       <c r="R26" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>1.36</v>
       </c>
       <c r="T26" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
         <v>1.66</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>4.9</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L27" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>3.1</v>
+        <v>1.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.94</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
         <v>1.19</v>
       </c>
       <c r="W27" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4120,10 +4120,10 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4141,10 +4141,10 @@
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:40:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
         <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>110</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -703,16 +703,16 @@
         <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -721,10 +721,10 @@
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Al-Zulfi SC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,40 +826,40 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,67 +928,67 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.84</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.33</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>5.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="V4" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.1</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="P5" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>2.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="G6" t="n">
-        <v>990</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>1.56</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
         <v>970</v>
       </c>
-      <c r="Y6" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
         <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>4.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="P7" t="n">
-        <v>1.22</v>
+        <v>1.49</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>2.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S7" t="n">
-        <v>1.37</v>
+        <v>5.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.33</v>
+        <v>2.82</v>
       </c>
       <c r="I8" t="n">
-        <v>990</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.01</v>
       </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.39</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,40 +1636,40 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
         <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
         <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,13 +1678,13 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,10 +1693,10 @@
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="G10" t="n">
-        <v>990</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="I10" t="n">
-        <v>990</v>
+        <v>2.82</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>1.48</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.05</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,99 +1868,99 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>12.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.55</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
         <v>970</v>
       </c>
       <c r="AC11" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG11" t="n">
         <v>970</v>
@@ -1969,31 +1969,31 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,78 +2003,78 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="G12" t="n">
-        <v>3.95</v>
+        <v>1.39</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>6.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>2.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>3.55</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,43 +2083,43 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,78 +2138,78 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>3.55</v>
       </c>
       <c r="O13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.33</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.77</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.81</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,43 +2218,43 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>44</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="H14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I14" t="n">
         <v>2.06</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.1</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="W14" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB14" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>970</v>
-      </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AK14" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.26</v>
+        <v>3.65</v>
       </c>
       <c r="G15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.32</v>
       </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>30</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>4.1</v>
+        <v>1.35</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>120</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>200</v>
+        <v>14.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>420</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN15" t="n">
         <v>55</v>
       </c>
-      <c r="AM15" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>7</v>
-      </c>
       <c r="AO15" t="n">
-        <v>630</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>3.65</v>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>5.6</v>
+        <v>2.18</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>2.42</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>1.25</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.4</v>
+        <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.52</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="S18" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>2.92</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>1.15</v>
+        <v>2.42</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB18" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>32</v>
-      </c>
       <c r="AC18" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
         <v>11</v>
       </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.34</v>
+        <v>1.31</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>1.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.08</v>
       </c>
-      <c r="N19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.66</v>
+        <v>3.85</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>2.52</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>2.86</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>110</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.89</v>
+        <v>2.92</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="S20" t="n">
-        <v>1.89</v>
+        <v>5.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>3.15</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD20" t="n">
         <v>970</v>
       </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -3218,75 +3218,75 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S21" t="n">
-        <v>1.05</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U21" t="n">
         <v>1.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3295,13 +3295,13 @@
         <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3322,7 +3322,7 @@
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.86</v>
+        <v>6.8</v>
       </c>
       <c r="G22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.92</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.15</v>
       </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
         <v>10.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AO22" t="n">
-        <v>38</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="23">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G23" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.95</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.46</v>
@@ -3526,94 +3526,94 @@
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="U23" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>1.48</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.02</v>
+        <v>1.89</v>
       </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.37</v>
+        <v>2.46</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>32</v>
-      </c>
       <c r="Z25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI25" t="n">
         <v>110</v>
       </c>
-      <c r="AA25" t="n">
-        <v>630</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AJ25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM25" t="n">
         <v>230</v>
       </c>
-      <c r="AF25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="AN25" t="n">
         <v>55</v>
       </c>
-      <c r="AM25" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>7</v>
-      </c>
       <c r="AO25" t="n">
-        <v>380</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -3893,260 +3893,800 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.44</v>
+        <v>2.86</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="H26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.25</v>
       </c>
-      <c r="I26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.29</v>
+        <v>3.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.36</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
-        <v>1.36</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Independiente Yumbo</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Atletico Nacional Medellin</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>980</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="F31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.19</v>
       </c>
-      <c r="W27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO27" t="n">
+      <c r="W31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO31" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,10 +679,10 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>110</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="Q2" t="n">
         <v>1.01</v>
@@ -706,13 +706,13 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.02</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al Faisaly ( KSA )</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>5.7</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1063,73 +1063,73 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>ASO Chlef</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.52</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.15</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
         <v>970</v>
@@ -1150,13 +1150,13 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>MB Rouissat</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>2.34</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
-        <v>1.89</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>970</v>
       </c>
-      <c r="AA6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF6" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>24</v>
-      </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN6" t="n">
         <v>55</v>
       </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>40</v>
-      </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>FC Metaloglobus Bucuresti</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.06</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.69</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.84</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.98</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.01</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.12</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>1.24</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.17</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>1.17</v>
+        <v>5.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.88</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="R10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.47</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12.5</v>
+        <v>1.02</v>
       </c>
       <c r="G11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="I11" t="n">
-        <v>1.39</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>1.17</v>
       </c>
       <c r="T11" t="n">
-        <v>2.46</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.32</v>
+        <v>2.98</v>
       </c>
       <c r="G12" t="n">
-        <v>1.39</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="I12" t="n">
-        <v>10.5</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>5.8</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.23</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.77</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.04</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>3.55</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
         <v>40</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AF12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK12" t="n">
         <v>50</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.6</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>1.35</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.39</v>
@@ -2176,94 +2176,94 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V13" t="n">
         <v>3.55</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="n">
         <v>970</v>
       </c>
-      <c r="Y13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15.5</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X14" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
         <v>4.6</v>
       </c>
-      <c r="G14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="X14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,108 +2408,108 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>2.22</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2518,22 +2518,22 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
         <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH16" t="n">
         <v>24</v>
       </c>
-      <c r="AF16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18</v>
-      </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="I17" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
         <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.67</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
@@ -2878,7 +2878,7 @@
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X18" t="n">
         <v>18.5</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H19" t="n">
         <v>11</v>
@@ -2974,37 +2974,37 @@
         <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
         <v>1.82</v>
@@ -3013,16 +3013,16 @@
         <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="n">
         <v>930</v>
@@ -3031,22 +3031,22 @@
         <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>50</v>
       </c>
       <c r="AE19" t="n">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
         <v>240</v>
@@ -3064,7 +3064,7 @@
         <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO19" t="n">
         <v>250</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.26</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.41</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>1.65</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN20" t="n">
         <v>60</v>
       </c>
-      <c r="AK20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>70</v>
-      </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="J21" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="T21" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="W21" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>900</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.8</v>
+        <v>2.52</v>
       </c>
       <c r="G22" t="n">
-        <v>7.6</v>
+        <v>2.86</v>
       </c>
       <c r="H22" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>1.52</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1</v>
+        <v>2.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="P22" t="n">
-        <v>2.34</v>
+        <v>1.41</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.66</v>
+        <v>2.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>5.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>2.92</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
-        <v>13.5</v>
+        <v>100</v>
       </c>
       <c r="AB22" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>14.5</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>6.4</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>2.76</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>2.06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>40</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.46</v>
+        <v>6.8</v>
       </c>
       <c r="G24" t="n">
-        <v>1.48</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>8.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="I24" t="n">
-        <v>9.6</v>
+        <v>1.51</v>
       </c>
       <c r="J24" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.11</v>
+        <v>2.92</v>
       </c>
       <c r="W24" t="n">
-        <v>3.05</v>
+        <v>1.15</v>
       </c>
       <c r="X24" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB24" t="n">
         <v>32</v>
       </c>
-      <c r="Z24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8</v>
-      </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>180</v>
+        <v>14.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.4</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
         <v>32</v>
       </c>
-      <c r="AI24" t="n">
-        <v>160</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>14.5</v>
+        <v>220</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.4</v>
+        <v>100</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,84 +3758,84 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.3</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.82</v>
-      </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>5.5</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="X25" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
         <v>9.199999999999999</v>
@@ -3844,40 +3844,40 @@
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
         <v>70</v>
       </c>
-      <c r="AF25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AO25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.86</v>
+        <v>1.46</v>
       </c>
       <c r="G26" t="n">
-        <v>2.92</v>
+        <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>2.78</v>
+        <v>8.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.88</v>
+        <v>9.4</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.72</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.53</v>
+        <v>1.12</v>
       </c>
       <c r="W26" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="AA26" t="n">
-        <v>46</v>
+        <v>370</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="n">
         <v>48</v>
       </c>
-      <c r="AK26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
-        <v>38</v>
+        <v>8.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
         <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="O27" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AO27" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.35</v>
       </c>
-      <c r="G28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="X28" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>36</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U29" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="X29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y29" t="n">
-        <v>13</v>
-      </c>
       <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN29" t="n">
         <v>25</v>
       </c>
-      <c r="AA29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI29" t="n">
+      <c r="AO29" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,260 +4433,530 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EC Vitoria Salvador</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.37</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="n">
-        <v>1.38</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>11.5</v>
+        <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>2.62</v>
       </c>
       <c r="J30" t="n">
-        <v>5.3</v>
+        <v>2.78</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
         <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="W30" t="n">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>110</v>
+        <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>590</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>460</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SE Palmeiras</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>EC Vitoria Salvador</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="X31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>2026-02-04</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Atletico Nacional Medellin</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>America de Cali S.A</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="F33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P33" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="Q33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC33" t="n">
         <v>11</v>
       </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG31" t="n">
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO31" t="n">
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>2.98</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -715,10 +715,10 @@
         <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -832,7 +832,7 @@
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q3" t="n">
         <v>2.26</v>
@@ -850,7 +850,7 @@
         <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>1.92</v>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
@@ -883,10 +883,10 @@
         <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -985,10 +985,10 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -1366,10 +1366,10 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
         <v>1.89</v>
@@ -1378,7 +1378,7 @@
         <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
         <v>3.4</v>
@@ -1402,13 +1402,13 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA7" t="n">
         <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>8.800000000000001</v>
@@ -1420,13 +1420,13 @@
         <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>50</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.53</v>
@@ -1501,40 +1501,40 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
-        <v>2.56</v>
+        <v>5.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,34 +1543,34 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,100 +1612,100 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="J9" t="n">
         <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.58</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="R9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
         <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X9" t="n">
         <v>7.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
         <v>6.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
         <v>130</v>
@@ -1714,10 +1714,10 @@
         <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.51</v>
       </c>
       <c r="H11" t="n">
-        <v>1.02</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>2.66</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>2.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>1.17</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.05</v>
@@ -1933,7 +1933,7 @@
         <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2023,10 +2023,10 @@
         <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2056,7 +2056,7 @@
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.94</v>
@@ -2065,7 +2065,7 @@
         <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>1.43</v>
@@ -2320,13 +2320,13 @@
         <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R14" t="n">
         <v>1.77</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T14" t="n">
         <v>1.75</v>
@@ -2344,7 +2344,7 @@
         <v>40</v>
       </c>
       <c r="Y14" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2356,10 +2356,10 @@
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2470,10 +2470,10 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
@@ -2518,7 +2518,7 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2563,25 +2563,25 @@
         <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2590,25 +2590,25 @@
         <v>1.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
         <v>1.81</v>
       </c>
       <c r="V16" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X16" t="n">
         <v>10.5</v>
@@ -2620,13 +2620,13 @@
         <v>12.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
         <v>11.5</v>
@@ -2638,7 +2638,7 @@
         <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH16" t="n">
         <v>24</v>
@@ -2647,13 +2647,13 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="n">
         <v>200</v>
@@ -2662,7 +2662,7 @@
         <v>120</v>
       </c>
       <c r="AO16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +2695,13 @@
         <v>3.65</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2710,7 +2710,7 @@
         <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2725,13 +2725,13 @@
         <v>1.87</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>1.32</v>
       </c>
       <c r="S17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
         <v>1.79</v>
@@ -2746,7 +2746,7 @@
         <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.800000000000001</v>
@@ -2764,7 +2764,7 @@
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>25</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G18" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.9</v>
@@ -2851,7 +2851,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2878,7 +2878,7 @@
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X18" t="n">
         <v>18.5</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I19" t="n">
         <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K19" t="n">
         <v>6.2</v>
@@ -2995,7 +2995,7 @@
         <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R19" t="n">
         <v>1.55</v>
@@ -3007,22 +3007,22 @@
         <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
         <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="Z19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
         <v>930</v>
@@ -3034,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AE19" t="n">
         <v>210</v>
@@ -3058,7 +3058,7 @@
         <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
         <v>260</v>
@@ -3067,7 +3067,7 @@
         <v>5.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3109,19 +3109,19 @@
         <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.35</v>
@@ -3145,7 +3145,7 @@
         <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W20" t="n">
         <v>1.31</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.16</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.18</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
@@ -3250,7 +3250,7 @@
         <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,7 +3262,7 @@
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
@@ -3280,16 +3280,16 @@
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X21" t="n">
         <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>13.5</v>
@@ -3301,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
@@ -3310,7 +3310,7 @@
         <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
         <v>16</v>
@@ -3322,10 +3322,10 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
@@ -3415,7 +3415,7 @@
         <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="W22" t="n">
         <v>1.53</v>
@@ -3472,7 +3472,7 @@
         <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>4.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="I23" t="n">
         <v>4.3</v>
@@ -3517,7 +3517,7 @@
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>1.41</v>
@@ -3544,10 +3544,10 @@
         <v>2.06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V23" t="n">
         <v>1.4</v>
@@ -3640,7 +3640,7 @@
         <v>6.8</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H24" t="n">
         <v>1.5</v>
@@ -3661,34 +3661,34 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
         <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U24" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X24" t="n">
         <v>22</v>
@@ -3697,7 +3697,7 @@
         <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>13.5</v>
@@ -3727,10 +3727,10 @@
         <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
@@ -3784,7 +3784,7 @@
         <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
         <v>3.4</v>
@@ -3796,13 +3796,13 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
         <v>2.2</v>
@@ -3826,7 +3826,7 @@
         <v>1.72</v>
       </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
@@ -3853,7 +3853,7 @@
         <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -3913,7 +3913,7 @@
         <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I26" t="n">
         <v>9.4</v>
@@ -3922,7 +3922,7 @@
         <v>4.7</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3940,7 +3940,7 @@
         <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
         <v>1.4</v>
@@ -3952,67 +3952,67 @@
         <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V26" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
         <v>3.05</v>
       </c>
       <c r="X26" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="n">
         <v>8</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM26" t="n">
         <v>180</v>
       </c>
-      <c r="AF26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>190</v>
-      </c>
       <c r="AN26" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
@@ -4075,7 +4075,7 @@
         <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
@@ -4219,10 +4219,10 @@
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.53</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
@@ -4324,7 +4324,7 @@
         <v>3.85</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
         <v>3.45</v>
@@ -4336,43 +4336,43 @@
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V29" t="n">
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y29" t="n">
         <v>12</v>
       </c>
-      <c r="Y29" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>80</v>
@@ -4381,22 +4381,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
         <v>55</v>
       </c>
       <c r="AF29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
         <v>65</v>
@@ -4405,7 +4405,7 @@
         <v>32</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
         <v>48</v>
@@ -4414,7 +4414,7 @@
         <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
         <v>60</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H30" t="n">
         <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
         <v>2.78</v>
@@ -4480,7 +4480,7 @@
         <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
@@ -4489,16 +4489,16 @@
         <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V30" t="n">
         <v>1.61</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4585,7 +4585,7 @@
         <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H31" t="n">
         <v>11</v>
@@ -4612,10 +4612,10 @@
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R31" t="n">
         <v>1.37</v>
@@ -4627,13 +4627,13 @@
         <v>2.38</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V31" t="n">
         <v>1.09</v>
       </c>
       <c r="W31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X31" t="n">
         <v>16.5</v>
@@ -4666,10 +4666,10 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
@@ -4687,7 +4687,7 @@
         <v>7.2</v>
       </c>
       <c r="AO31" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32">
@@ -4723,16 +4723,16 @@
         <v>2.5</v>
       </c>
       <c r="H32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I32" t="n">
         <v>3.5</v>
       </c>
-      <c r="I32" t="n">
-        <v>3.55</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
         <v>1.46</v>
@@ -4747,13 +4747,13 @@
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q32" t="n">
         <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
@@ -4762,19 +4762,19 @@
         <v>1.86</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
         <v>1.67</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
         <v>24</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
         <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.98</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -718,7 +718,7 @@
         <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
         <v>2.08</v>
@@ -814,43 +814,43 @@
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
         <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>1.92</v>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -868,19 +868,19 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,16 +889,16 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -970,13 +970,13 @@
         <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="T4" t="n">
         <v>1.05</v>
@@ -985,16 +985,16 @@
         <v>1.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
         <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>1.55</v>
@@ -1102,7 +1102,7 @@
         <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
         <v>2.84</v>
@@ -1120,7 +1120,7 @@
         <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
         <v>1.94</v>
@@ -1216,7 +1216,7 @@
         <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
         <v>2.96</v>
@@ -1240,7 +1240,7 @@
         <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="R6" t="n">
         <v>1.14</v>
@@ -1255,7 +1255,7 @@
         <v>1.64</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1267,7 +1267,7 @@
         <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>110</v>
@@ -1282,7 +1282,7 @@
         <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
         <v>13.5</v>
@@ -1300,7 +1300,7 @@
         <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
         <v>2.66</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
         <v>970</v>
@@ -1408,10 +1408,10 @@
         <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>14</v>
@@ -1447,7 +1447,7 @@
         <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1480,16 +1480,16 @@
         <v>1.75</v>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1498,7 +1498,7 @@
         <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
         <v>2.28</v>
@@ -1507,16 +1507,16 @@
         <v>1.63</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q8" t="n">
         <v>2.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="T8" t="n">
         <v>2.48</v>
@@ -1525,10 +1525,10 @@
         <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
         <v>8.6</v>
@@ -1618,10 +1618,10 @@
         <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.74</v>
@@ -1642,7 +1642,7 @@
         <v>1.58</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" t="n">
         <v>2.8</v>
@@ -1654,16 +1654,16 @@
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
         <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="W9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
         <v>7.6</v>
@@ -1702,7 +1702,7 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
         <v>75</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
         <v>2.9</v>
@@ -1765,46 +1765,46 @@
         <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="P10" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
         <v>22</v>
@@ -1813,10 +1813,10 @@
         <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>16</v>
@@ -1825,7 +1825,7 @@
         <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>16.5</v>
@@ -1849,10 +1849,10 @@
         <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>8</v>
@@ -1897,28 +1897,28 @@
         <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
         <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
         <v>2.2</v>
@@ -1933,7 +1933,7 @@
         <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>3.35</v>
@@ -2032,16 +2032,16 @@
         <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
@@ -2059,7 +2059,7 @@
         <v>4.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>1.98</v>
@@ -2071,7 +2071,7 @@
         <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.199999999999999</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
         <v>1.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2182,28 +2182,28 @@
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V13" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
         <v>16.5</v>
@@ -2218,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
@@ -2230,7 +2230,7 @@
         <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="n">
         <v>970</v>
@@ -2245,10 +2245,10 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="AL13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AM13" t="n">
         <v>370</v>
@@ -2428,7 +2428,7 @@
         <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
         <v>4.4</v>
@@ -2437,7 +2437,7 @@
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.39</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
@@ -2464,7 +2464,7 @@
         <v>3.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U15" t="n">
         <v>2.06</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
         <v>4.8</v>
@@ -2566,7 +2566,7 @@
         <v>2.08</v>
       </c>
       <c r="I16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2578,19 +2578,19 @@
         <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
       </c>
       <c r="P16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
@@ -2602,19 +2602,19 @@
         <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="W16" t="n">
         <v>1.27</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z16" t="n">
         <v>12.5</v>
@@ -2659,7 +2659,7 @@
         <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -2695,7 +2695,7 @@
         <v>3.65</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>2.16</v>
@@ -2704,49 +2704,49 @@
         <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.33</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.800000000000001</v>
@@ -2755,31 +2755,31 @@
         <v>14.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
         <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
@@ -2788,16 +2788,16 @@
         <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
@@ -2839,7 +2839,7 @@
         <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,7 +2851,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
@@ -2878,61 +2878,61 @@
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.33</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.34</v>
-      </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K19" t="n">
         <v>6.2</v>
@@ -2986,13 +2986,13 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
         <v>1.66</v>
@@ -3001,10 +3001,10 @@
         <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
         <v>1.84</v>
@@ -3013,7 +3013,7 @@
         <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
         <v>25</v>
@@ -3022,25 +3022,25 @@
         <v>65</v>
       </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="n">
         <v>930</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="n">
         <v>210</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
@@ -3064,10 +3064,10 @@
         <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
         <v>4.2</v>
@@ -3106,13 +3106,13 @@
         <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.43</v>
@@ -3124,13 +3124,13 @@
         <v>3.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
         <v>1.34</v>
@@ -3139,13 +3139,13 @@
         <v>3.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
         <v>1.31</v>
@@ -3154,34 +3154,34 @@
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z20" t="n">
         <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>42</v>
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J21" t="n">
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>3.55</v>
@@ -3280,16 +3280,16 @@
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
         <v>13.5</v>
@@ -3301,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
@@ -3376,10 +3376,10 @@
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
         <v>3.1</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>4.4</v>
+        <v>2.86</v>
       </c>
       <c r="H23" t="n">
         <v>2.86</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
@@ -3526,22 +3526,22 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O23" t="n">
         <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
         <v>1.9</v>
@@ -3550,10 +3550,10 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3640,19 +3640,19 @@
         <v>6.8</v>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.31</v>
@@ -3664,7 +3664,7 @@
         <v>5.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
         <v>2.4</v>
@@ -3673,19 +3673,19 @@
         <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="W24" t="n">
         <v>1.16</v>
@@ -3718,7 +3718,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
@@ -3733,7 +3733,7 @@
         <v>100</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
         <v>3.35</v>
@@ -3796,13 +3796,13 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q25" t="n">
         <v>2.2</v>
@@ -3811,73 +3811,73 @@
         <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U25" t="n">
         <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G26" t="n">
         <v>1.48</v>
@@ -3922,7 +3922,7 @@
         <v>4.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3964,13 +3964,13 @@
         <v>18</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AB26" t="n">
         <v>8</v>
@@ -3985,7 +3985,7 @@
         <v>150</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG26" t="n">
         <v>11.5</v>
@@ -4009,7 +4009,7 @@
         <v>180</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO26" t="n">
         <v>210</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
         <v>3.35</v>
@@ -4222,13 +4222,13 @@
         <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X28" t="n">
         <v>11.5</v>
@@ -4318,7 +4318,7 @@
         <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
         <v>3.85</v>
@@ -4342,19 +4342,19 @@
         <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
         <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U29" t="n">
         <v>1.99</v>
@@ -4363,7 +4363,7 @@
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
         <v>11.5</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
         <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="J30" t="n">
         <v>2.78</v>
@@ -4468,7 +4468,7 @@
         <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>2.48</v>
@@ -4480,25 +4480,25 @@
         <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4615,10 +4615,10 @@
         <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S31" t="n">
         <v>3.5</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J32" t="n">
         <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.46</v>
@@ -4747,7 +4747,7 @@
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
         <v>2.18</v>
@@ -4765,10 +4765,10 @@
         <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W32" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4783,7 +4783,7 @@
         <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
@@ -4795,7 +4795,7 @@
         <v>46</v>
       </c>
       <c r="AF32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
         <v>12.5</v>
@@ -4819,7 +4819,7 @@
         <v>130</v>
       </c>
       <c r="AN32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO32" t="n">
         <v>48</v>
@@ -4855,7 +4855,7 @@
         <v>1.65</v>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H33" t="n">
         <v>5.8</v>
@@ -4891,7 +4891,7 @@
         <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T33" t="n">
         <v>2.02</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -676,7 +676,7 @@
         <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>110</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -706,7 +706,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -715,7 +715,7 @@
         <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="W2" t="n">
         <v>2.16</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
         <v>2.08</v>
@@ -811,28 +811,28 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
         <v>2.16</v>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -871,13 +871,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -886,10 +886,10 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -898,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.35</v>
       </c>
-      <c r="I4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.92</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
         <v>2.06</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2.8</v>
@@ -1090,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
         <v>2.3</v>
@@ -1102,25 +1102,25 @@
         <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.84</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
         <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
         <v>1.94</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>970</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
         <v>2.56</v>
@@ -1216,43 +1216,43 @@
         <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
         <v>3.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P6" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="V6" t="n">
         <v>1.34</v>
@@ -1261,16 +1261,16 @@
         <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
         <v>6.6</v>
@@ -1279,7 +1279,7 @@
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>90</v>
@@ -1291,28 +1291,28 @@
         <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H7" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1363,91 +1363,91 @@
         <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>46</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
         <v>1.92</v>
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1501,19 +1501,19 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P8" t="n">
         <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
         <v>5.9</v>
@@ -1522,19 +1522,19 @@
         <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
         <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,10 +1546,10 @@
         <v>6.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,19 +1558,19 @@
         <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1621,16 +1621,16 @@
         <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K9" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -1639,10 +1639,10 @@
         <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q9" t="n">
         <v>2.8</v>
@@ -1654,13 +1654,13 @@
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V9" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
         <v>1.28</v>
@@ -1669,7 +1669,7 @@
         <v>7.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
         <v>15.5</v>
@@ -1690,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -1714,7 +1714,7 @@
         <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AO9" t="n">
         <v>38</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.56</v>
@@ -1774,31 +1774,31 @@
         <v>2.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R10" t="n">
         <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="T10" t="n">
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X10" t="n">
         <v>8.199999999999999</v>
@@ -1807,13 +1807,13 @@
         <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>7</v>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
         <v>28</v>
@@ -1846,10 +1846,10 @@
         <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="n">
         <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I11" t="n">
         <v>1000</v>
@@ -1933,7 +1933,7 @@
         <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G12" t="n">
         <v>3.35</v>
@@ -2026,7 +2026,7 @@
         <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2047,7 +2047,7 @@
         <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
         <v>2.38</v>
@@ -2065,7 +2065,7 @@
         <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
         <v>1.43</v>
@@ -2080,7 +2080,7 @@
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AB12" t="n">
         <v>11</v>
@@ -2101,22 +2101,22 @@
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AK12" t="n">
         <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
         <v>55</v>
@@ -2161,7 +2161,7 @@
         <v>1.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2170,64 +2170,64 @@
         <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z13" t="n">
         <v>6.8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7.2</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
         <v>130</v>
@@ -2239,7 +2239,7 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="14">
@@ -2293,7 +2293,7 @@
         <v>1.39</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2329,7 +2329,7 @@
         <v>2.06</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
         <v>2.08</v>
@@ -2341,7 +2341,7 @@
         <v>3.55</v>
       </c>
       <c r="X14" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
         <v>970</v>
@@ -2356,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD14" t="n">
         <v>970</v>
@@ -2476,13 +2476,13 @@
         <v>1.83</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2497,34 +2497,34 @@
         <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
         <v>4.8</v>
@@ -2566,10 +2566,10 @@
         <v>2.08</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.35</v>
@@ -2581,7 +2581,7 @@
         <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2599,13 +2599,13 @@
         <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
         <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W16" t="n">
         <v>1.27</v>
@@ -2623,7 +2623,7 @@
         <v>27</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
@@ -2638,7 +2638,7 @@
         <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="n">
         <v>24</v>
@@ -2647,19 +2647,19 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AM16" t="n">
         <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
@@ -2716,16 +2716,16 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
@@ -2737,13 +2737,13 @@
         <v>1.87</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2758,7 +2758,7 @@
         <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2767,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
         <v>26</v>
@@ -2776,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
         <v>48</v>
@@ -2797,7 +2797,7 @@
         <v>65</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.38</v>
@@ -2851,88 +2851,88 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R18" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>100</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO18" t="n">
         <v>120</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.32</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.33</v>
-      </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.3</v>
@@ -2986,58 +2986,58 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
         <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U19" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA19" t="n">
-        <v>930</v>
+        <v>680</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AF19" t="n">
         <v>8</v>
@@ -3049,25 +3049,25 @@
         <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="AJ19" t="n">
         <v>10.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
         <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
         <v>2.16</v>
@@ -3112,40 +3112,40 @@
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
         <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
         <v>1.31</v>
@@ -3163,34 +3163,34 @@
         <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
         <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
         <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
         <v>85</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="AL20" t="n">
         <v>65</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I21" t="n">
         <v>2.18</v>
       </c>
       <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.43</v>
@@ -3271,31 +3271,31 @@
         <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
         <v>13.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
@@ -3307,22 +3307,22 @@
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
         <v>48</v>
@@ -3337,7 +3337,7 @@
         <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -3376,10 +3376,10 @@
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="K22" t="n">
         <v>3.1</v>
@@ -3394,7 +3394,7 @@
         <v>2.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P22" t="n">
         <v>1.41</v>
@@ -3421,58 +3421,58 @@
         <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AE22" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AF22" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG22" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AO22" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
@@ -3508,7 +3508,7 @@
         <v>2.86</v>
       </c>
       <c r="H23" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I23" t="n">
         <v>3.95</v>
@@ -3517,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.1</v>
@@ -3532,7 +3532,7 @@
         <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="Q23" t="n">
         <v>2.12</v>
@@ -3550,7 +3550,7 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -3565,13 +3565,13 @@
         <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="G24" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="I24" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.31</v>
@@ -3667,13 +3667,13 @@
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
         <v>1.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
         <v>2.68</v>
@@ -3685,25 +3685,25 @@
         <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA24" t="n">
         <v>13.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AC24" t="n">
         <v>11.5</v>
@@ -3715,19 +3715,19 @@
         <v>14.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="n">
         <v>100</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
         <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
@@ -3802,7 +3802,7 @@
         <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q25" t="n">
         <v>2.2</v>
@@ -3820,10 +3820,10 @@
         <v>2.06</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
@@ -3832,10 +3832,10 @@
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
         <v>9</v>
@@ -3844,7 +3844,7 @@
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
         <v>50</v>
@@ -3871,7 +3871,7 @@
         <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
         <v>22</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G26" t="n">
         <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3937,25 +3937,25 @@
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
         <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W26" t="n">
         <v>3.05</v>
@@ -3967,10 +3967,10 @@
         <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="n">
         <v>8</v>
@@ -3994,7 +3994,7 @@
         <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -4006,7 +4006,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
         <v>7.8</v>
@@ -4066,7 +4066,7 @@
         <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.55</v>
@@ -4075,7 +4075,7 @@
         <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
@@ -4099,10 +4099,10 @@
         <v>8.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
         <v>90</v>
@@ -4123,13 +4123,13 @@
         <v>17.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ27" t="n">
         <v>42</v>
@@ -4138,10 +4138,10 @@
         <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM27" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
         <v>50</v>
@@ -4180,10 +4180,10 @@
         <v>2.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H28" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I28" t="n">
         <v>2.8</v>
@@ -4201,28 +4201,28 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
         <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
         <v>2.26</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.55</v>
@@ -4276,13 +4276,13 @@
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN28" t="n">
         <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -4315,10 +4315,10 @@
         <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
         <v>3.85</v>
@@ -4327,7 +4327,7 @@
         <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.48</v>
@@ -4342,10 +4342,10 @@
         <v>1.41</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
         <v>1.28</v>
@@ -4363,37 +4363,37 @@
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
         <v>20</v>
@@ -4402,19 +4402,19 @@
         <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK29" t="n">
         <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
         <v>140</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>60</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="G30" t="n">
         <v>4.4</v>
@@ -4456,10 +4456,10 @@
         <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
@@ -4468,10 +4468,10 @@
         <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="O30" t="n">
         <v>1.46</v>
@@ -4480,28 +4480,28 @@
         <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X30" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y30" t="n">
         <v>8</v>
@@ -4516,7 +4516,7 @@
         <v>14</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
         <v>14</v>
@@ -4594,10 +4594,10 @@
         <v>12</v>
       </c>
       <c r="J31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.38</v>
@@ -4612,7 +4612,7 @@
         <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q31" t="n">
         <v>1.96</v>
@@ -4660,7 +4660,7 @@
         <v>250</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4723,13 +4723,13 @@
         <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
         <v>3.65</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
         <v>3.4</v>
@@ -4759,7 +4759,7 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
         <v>2.08</v>
@@ -4771,16 +4771,16 @@
         <v>1.7</v>
       </c>
       <c r="X32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
         <v>9.199999999999999</v>
@@ -4789,16 +4789,16 @@
         <v>7.2</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>21</v>
@@ -4807,19 +4807,19 @@
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL32" t="n">
         <v>46</v>
       </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
         <v>48</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G33" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.36</v>
@@ -4888,22 +4888,22 @@
         <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
         <v>2.02</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
         <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X33" t="n">
         <v>16</v>
@@ -4918,7 +4918,7 @@
         <v>230</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
         <v>11</v>
@@ -4933,7 +4933,7 @@
         <v>11.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>110</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>1.7</v>
@@ -841,7 +841,7 @@
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.95</v>
@@ -853,7 +853,7 @@
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -862,25 +862,25 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>36</v>
       </c>
       <c r="AE3" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,25 +889,25 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>290</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -976,7 +976,7 @@
         <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
         <v>1.89</v>
@@ -988,7 +988,7 @@
         <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1018,10 +1018,10 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,10 +1030,10 @@
         <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
         <v>2.3</v>
@@ -1102,16 +1102,16 @@
         <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="T5" t="n">
         <v>2.38</v>
@@ -1120,16 +1120,16 @@
         <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1210,67 +1210,67 @@
         <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="P6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
       </c>
       <c r="S6" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y6" t="n">
         <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
         <v>6.6</v>
@@ -1282,31 +1282,31 @@
         <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="n">
         <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
         <v>42</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="AM6" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AN6" t="n">
         <v>60</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.86</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.84</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>3.4</v>
@@ -1363,7 +1363,7 @@
         <v>1.42</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
         <v>3.4</v>
@@ -1381,31 +1381,31 @@
         <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
         <v>1.54</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>18</v>
@@ -1417,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
         <v>19</v>
@@ -1426,16 +1426,16 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G8" t="n">
         <v>1.92</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I8" t="n">
         <v>7.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.62</v>
@@ -1522,7 +1522,7 @@
         <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
@@ -1537,13 +1537,13 @@
         <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC8" t="n">
         <v>8.4</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G9" t="n">
         <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -1639,16 +1639,16 @@
         <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
         <v>6</v>
@@ -1657,31 +1657,31 @@
         <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
         <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y9" t="n">
         <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
         <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
@@ -1696,10 +1696,10 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
         <v>110</v>
@@ -1708,10 +1708,10 @@
         <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
         <v>300</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.94</v>
@@ -1765,40 +1765,40 @@
         <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="P10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
         <v>2.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
         <v>8.199999999999999</v>
@@ -1807,7 +1807,7 @@
         <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA10" t="n">
         <v>65</v>
@@ -1816,40 +1816,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AM10" t="n">
         <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,16 +1912,16 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
         <v>1.05</v>
@@ -1930,10 +1930,10 @@
         <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
         <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
@@ -2047,7 +2047,7 @@
         <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.38</v>
@@ -2068,7 +2068,7 @@
         <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
@@ -2077,52 +2077,52 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
       </c>
       <c r="AI12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>65</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>500</v>
-      </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
         <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -2155,13 +2155,13 @@
         <v>10.5</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H13" t="n">
         <v>1.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2176,16 +2176,16 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
         <v>1.28</v>
@@ -2194,19 +2194,19 @@
         <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="U13" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>6.6</v>
@@ -2215,13 +2215,13 @@
         <v>6.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AB13" t="n">
         <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
@@ -2236,7 +2236,7 @@
         <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -2245,19 +2245,19 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AL13" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AM13" t="n">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
         <v>9</v>
@@ -2317,13 +2317,13 @@
         <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q14" t="n">
         <v>1.43</v>
       </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S14" t="n">
         <v>2.06</v>
@@ -2338,7 +2338,7 @@
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
         <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>14</v>
       </c>
-      <c r="AK14" t="n">
-        <v>16</v>
-      </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.9</v>
@@ -2461,7 +2461,7 @@
         <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
         <v>1.76</v>
@@ -2473,7 +2473,7 @@
         <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
         <v>28</v>
@@ -2482,22 +2482,22 @@
         <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AE15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>28</v>
@@ -2518,7 +2518,7 @@
         <v>65</v>
       </c>
       <c r="AL15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I16" t="n">
         <v>2.1</v>
@@ -2572,10 +2572,10 @@
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="M16" t="n">
         <v>1.12</v>
@@ -2584,7 +2584,7 @@
         <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P16" t="n">
         <v>1.59</v>
@@ -2596,7 +2596,7 @@
         <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T16" t="n">
         <v>2.1</v>
@@ -2608,37 +2608,37 @@
         <v>1.9</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>7.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA16" t="n">
         <v>27</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
         <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
         <v>24</v>
@@ -2647,22 +2647,22 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN16" t="n">
         <v>500</v>
       </c>
-      <c r="AM16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>130</v>
-      </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -2698,13 +2698,13 @@
         <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
@@ -2722,7 +2722,7 @@
         <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
         <v>2.18</v>
@@ -2731,7 +2731,7 @@
         <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
         <v>1.87</v>
@@ -2740,16 +2740,16 @@
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
         <v>14.5</v>
@@ -2758,43 +2758,43 @@
         <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
         <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>48</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
         <v>22</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>7.4</v>
       </c>
       <c r="J18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.3</v>
       </c>
-      <c r="K18" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
         <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
         <v>6.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="n">
         <v>130</v>
       </c>
       <c r="AA19" t="n">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AE19" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ19" t="n">
         <v>10.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO19" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20">
@@ -3106,13 +3106,13 @@
         <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3121,16 +3121,16 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
         <v>1.33</v>
@@ -3139,34 +3139,34 @@
         <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
         <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
@@ -3184,7 +3184,7 @@
         <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ20" t="n">
         <v>85</v>
@@ -3193,7 +3193,7 @@
         <v>500</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="n">
         <v>120</v>
@@ -3202,7 +3202,7 @@
         <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>3.55</v>
@@ -3262,34 +3262,34 @@
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
         <v>1.85</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -3301,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
@@ -3310,10 +3310,10 @@
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>18</v>
@@ -3322,7 +3322,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
         <v>48</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
         <v>2.86</v>
@@ -3376,16 +3376,16 @@
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J22" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="K22" t="n">
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
@@ -3394,10 +3394,10 @@
         <v>2.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P22" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
         <v>2.92</v>
@@ -3406,7 +3406,7 @@
         <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
         <v>2.2</v>
@@ -3418,28 +3418,28 @@
         <v>1.34</v>
       </c>
       <c r="W22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
         <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>500</v>
@@ -3448,7 +3448,7 @@
         <v>500</v>
       </c>
       <c r="AG22" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
@@ -3457,7 +3457,7 @@
         <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK22" t="n">
         <v>500</v>
@@ -3511,13 +3511,13 @@
         <v>2.84</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
@@ -3532,10 +3532,10 @@
         <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>1.42</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
@@ -3550,7 +3550,7 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
         <v>7.6</v>
@@ -3652,7 +3652,7 @@
         <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.31</v>
@@ -3670,7 +3670,7 @@
         <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
         <v>1.56</v>
@@ -3703,19 +3703,19 @@
         <v>13.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AC24" t="n">
         <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
         <v>14.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AG24" t="n">
         <v>27</v>
@@ -3733,7 +3733,7 @@
         <v>100</v>
       </c>
       <c r="AL24" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
         <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>3.35</v>
@@ -3796,58 +3796,58 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q25" t="n">
         <v>2.2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
         <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
@@ -3859,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
         <v>32</v>
@@ -3874,10 +3874,10 @@
         <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -3913,10 +3913,10 @@
         <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
@@ -3931,28 +3931,28 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
         <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V26" t="n">
         <v>1.12</v>
@@ -3961,7 +3961,7 @@
         <v>3.05</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
         <v>27</v>
@@ -3970,46 +3970,46 @@
         <v>75</v>
       </c>
       <c r="AA26" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
         <v>150</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
         <v>130</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO26" t="n">
         <v>210</v>
@@ -4048,7 +4048,7 @@
         <v>2.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
         <v>3.85</v>
@@ -4093,7 +4093,7 @@
         <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X27" t="n">
         <v>8.6</v>
@@ -4180,10 +4180,10 @@
         <v>2.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I28" t="n">
         <v>2.8</v>
@@ -4198,13 +4198,13 @@
         <v>1.49</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
         <v>1.74</v>
@@ -4219,7 +4219,7 @@
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
@@ -4228,10 +4228,10 @@
         <v>1.55</v>
       </c>
       <c r="W28" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y28" t="n">
         <v>9.800000000000001</v>
@@ -4243,7 +4243,7 @@
         <v>46</v>
       </c>
       <c r="AB28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4252,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="n">
         <v>17.5</v>
@@ -4411,7 +4411,7 @@
         <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN29" t="n">
         <v>23</v>
@@ -4456,10 +4456,10 @@
         <v>2.12</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
@@ -4468,34 +4468,34 @@
         <v>1.44</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>2.74</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
         <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R30" t="n">
         <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W30" t="n">
         <v>1.29</v>
@@ -4504,7 +4504,7 @@
         <v>10</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z30" t="n">
         <v>13.5</v>
@@ -4513,37 +4513,37 @@
         <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
         <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H31" t="n">
         <v>11</v>
@@ -4597,10 +4597,10 @@
         <v>5.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
@@ -4609,13 +4609,13 @@
         <v>3.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
         <v>1.36</v>
@@ -4624,22 +4624,22 @@
         <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V31" t="n">
         <v>1.09</v>
       </c>
       <c r="W31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
         <v>110</v>
@@ -4648,13 +4648,13 @@
         <v>590</v>
       </c>
       <c r="AB31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE31" t="n">
         <v>250</v>
@@ -4666,10 +4666,10 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
@@ -4723,7 +4723,7 @@
         <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
         <v>3.65</v>
@@ -4732,25 +4732,25 @@
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
         <v>1.3</v>
@@ -4759,16 +4759,16 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U32" t="n">
         <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4780,10 +4780,10 @@
         <v>23</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
@@ -4792,37 +4792,37 @@
         <v>15</v>
       </c>
       <c r="AE32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI32" t="n">
         <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
         <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO32" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G33" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H33" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.36</v>
@@ -4882,31 +4882,31 @@
         <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" t="n">
         <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T33" t="n">
         <v>2.02</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V33" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W33" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
@@ -4915,13 +4915,13 @@
         <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,10 +4930,10 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -673,10 +673,10 @@
         <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
@@ -685,7 +685,7 @@
         <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -820,13 +820,13 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -838,7 +838,7 @@
         <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
@@ -877,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="AE3" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="AF3" t="n">
         <v>11.5</v>
@@ -898,7 +898,7 @@
         <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
@@ -949,7 +949,7 @@
         <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
@@ -964,7 +964,7 @@
         <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
         <v>1.76</v>
@@ -973,10 +973,10 @@
         <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
         <v>1.89</v>
@@ -988,7 +988,7 @@
         <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>23</v>
@@ -1033,7 +1033,7 @@
         <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
         <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1102,10 +1102,10 @@
         <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1123,22 +1123,22 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="X5" t="n">
         <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
         <v>25</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
         <v>75</v>
@@ -1210,22 +1210,22 @@
         <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1249,7 +1249,7 @@
         <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
         <v>1.58</v>
@@ -1267,7 +1267,7 @@
         <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
         <v>95</v>
@@ -1282,7 +1282,7 @@
         <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
         <v>13.5</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -1357,10 +1357,10 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1375,19 +1375,19 @@
         <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V7" t="n">
         <v>1.54</v>
@@ -1396,7 +1396,7 @@
         <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
@@ -1495,7 +1495,7 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="n">
         <v>1.14</v>
@@ -1510,19 +1510,19 @@
         <v>1.43</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V8" t="n">
         <v>1.16</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>4.6</v>
@@ -1627,7 +1627,7 @@
         <v>2.74</v>
       </c>
       <c r="K9" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>1.58</v>
@@ -1636,7 +1636,7 @@
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
         <v>1.6</v>
@@ -1663,7 +1663,7 @@
         <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X9" t="n">
         <v>7.8</v>
@@ -1672,7 +1672,7 @@
         <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
         <v>36</v>
@@ -1759,13 +1759,13 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
         <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
@@ -1789,10 +1789,10 @@
         <v>5.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V10" t="n">
         <v>1.45</v>
@@ -1885,7 +1885,7 @@
         <v>1.32</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H11" t="n">
         <v>9.4</v>
@@ -1900,34 +1900,34 @@
         <v>6.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
@@ -1936,10 +1936,10 @@
         <v>3.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>4.9</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2062,7 +2062,7 @@
         <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>1.55</v>
@@ -2080,7 +2080,7 @@
         <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2107,7 +2107,7 @@
         <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AK12" t="n">
         <v>220</v>
@@ -2119,7 +2119,7 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AO12" t="n">
         <v>500</v>
@@ -2152,82 +2152,82 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>14.5</v>
       </c>
       <c r="H13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.35</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.41</v>
-      </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>3.35</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
         <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
         <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
         <v>130</v>
@@ -2236,28 +2236,28 @@
         <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AK13" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM13" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2299,10 +2299,10 @@
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>1.23</v>
@@ -2314,25 +2314,25 @@
         <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.78</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>2.06</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.08</v>
       </c>
       <c r="V14" t="n">
         <v>1.1</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
         <v>3.9</v>
@@ -2470,10 +2470,10 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X15" t="n">
         <v>28</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J16" t="n">
         <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.52</v>
@@ -2590,7 +2590,7 @@
         <v>1.59</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
         <v>1.21</v>
@@ -2605,13 +2605,13 @@
         <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
         <v>7.2</v>
@@ -2623,7 +2623,7 @@
         <v>27</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>7.2</v>
@@ -2632,10 +2632,10 @@
         <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
         <v>20</v>
@@ -2647,22 +2647,22 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -2701,7 +2701,7 @@
         <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2731,7 +2731,7 @@
         <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
         <v>1.87</v>
@@ -2743,7 +2743,7 @@
         <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2779,7 +2779,7 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
         <v>85</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G18" t="n">
         <v>1.61</v>
@@ -2845,34 +2845,34 @@
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
         <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
@@ -2881,10 +2881,10 @@
         <v>2.62</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
@@ -2896,13 +2896,13 @@
         <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
         <v>9.199999999999999</v>
@@ -2911,10 +2911,10 @@
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -2926,13 +2926,13 @@
         <v>42</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
         <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2962,46 +2962,46 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="G19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="T19" t="n">
         <v>2.2</v>
@@ -3010,19 +3010,19 @@
         <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="X19" t="n">
         <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Z19" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AA19" t="n">
         <v>690</v>
@@ -3034,40 +3034,40 @@
         <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO19" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20">
@@ -3106,7 +3106,7 @@
         <v>2.14</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T20" t="n">
         <v>1.84</v>
@@ -3145,10 +3145,10 @@
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3175,25 +3175,25 @@
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
         <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AL20" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>120</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H21" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3250,7 +3250,7 @@
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,7 +3262,7 @@
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
@@ -3274,31 +3274,31 @@
         <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB21" t="n">
         <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>14</v>
       </c>
       <c r="AC21" t="n">
         <v>7.8</v>
@@ -3307,13 +3307,13 @@
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>18</v>
@@ -3322,22 +3322,22 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K22" t="n">
         <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="M22" t="n">
         <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q22" t="n">
         <v>2.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S22" t="n">
         <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
         <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W22" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.4</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
         <v>500</v>
@@ -3433,7 +3433,7 @@
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>500</v>
       </c>
       <c r="AJ22" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="n">
         <v>500</v>
@@ -3532,10 +3532,10 @@
         <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
         <v>1.19</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K24" t="n">
         <v>5.3</v>
@@ -3661,13 +3661,13 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q24" t="n">
         <v>1.64</v>
@@ -3679,28 +3679,28 @@
         <v>2.68</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
         <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y24" t="n">
         <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB24" t="n">
         <v>32</v>
@@ -3712,19 +3712,19 @@
         <v>10.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
         <v>240</v>
@@ -3733,16 +3733,16 @@
         <v>100</v>
       </c>
       <c r="AL24" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
         <v>3.45</v>
@@ -3796,37 +3796,37 @@
         <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
@@ -3835,19 +3835,19 @@
         <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
@@ -3856,28 +3856,28 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
         <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.47</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H26" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J26" t="n">
         <v>4.8</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3931,7 +3931,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -3958,22 +3958,22 @@
         <v>1.12</v>
       </c>
       <c r="W26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>10.5</v>
@@ -4006,10 +4006,10 @@
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO26" t="n">
         <v>210</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="H28" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>1.49</v>
@@ -4201,10 +4201,10 @@
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
         <v>1.74</v>
@@ -4216,34 +4216,34 @@
         <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
         <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4252,13 +4252,13 @@
         <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
         <v>19.5</v>
@@ -4267,10 +4267,10 @@
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -4279,10 +4279,10 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO28" t="n">
         <v>38</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -4315,7 +4315,7 @@
         <v>2.26</v>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
         <v>3.7</v>
@@ -4489,10 +4489,10 @@
         <v>4.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
         <v>1.72</v>
@@ -4585,13 +4585,13 @@
         <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J31" t="n">
         <v>5.2</v>
@@ -4606,22 +4606,22 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R31" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
         <v>2.4</v>
@@ -4630,10 +4630,10 @@
         <v>1.67</v>
       </c>
       <c r="V31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="X31" t="n">
         <v>15.5</v>
@@ -4648,7 +4648,7 @@
         <v>590</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
         <v>11.5</v>
@@ -4657,7 +4657,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="n">
         <v>7</v>
@@ -4666,28 +4666,28 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
@@ -4723,16 +4723,16 @@
         <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.47</v>
@@ -4741,7 +4741,7 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
@@ -4759,16 +4759,16 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4801,7 +4801,7 @@
         <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
         <v>60</v>
@@ -4813,13 +4813,13 @@
         <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
         <v>50</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H33" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.36</v>
@@ -4876,37 +4876,37 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="R33" t="n">
         <v>1.32</v>
       </c>
       <c r="S33" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V33" t="n">
         <v>1.16</v>
       </c>
       <c r="W33" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -670,19 +670,19 @@
         <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
@@ -718,10 +718,10 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>38</v>
@@ -736,40 +736,40 @@
         <v>7</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AK2" t="n">
         <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -847,7 +847,7 @@
         <v>1.95</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -862,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="AF3" t="n">
         <v>11.5</v>
@@ -889,25 +889,25 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ3" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO3" t="n">
         <v>290</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -940,106 +940,106 @@
         <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
         <v>2.06</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.89</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
         <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,73 +1072,73 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
         <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
         <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>25</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
         <v>75</v>
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
@@ -1258,13 +1258,13 @@
         <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="X6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
         <v>24</v>
@@ -1297,13 +1297,13 @@
         <v>180</v>
       </c>
       <c r="AJ6" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
         <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="AM6" t="n">
         <v>340</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
         <v>1.87</v>
@@ -1390,31 +1390,31 @@
         <v>2.08</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
         <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
         <v>80</v>
@@ -1432,10 +1432,10 @@
         <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
@@ -1444,10 +1444,10 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1477,55 +1477,55 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="G8" t="n">
         <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="R8" t="n">
         <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
         <v>2.08</v>
@@ -1561,7 +1561,7 @@
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1615,61 +1615,61 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
         <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
         <v>6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
         <v>1.69</v>
       </c>
       <c r="W9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z9" t="n">
         <v>13.5</v>
@@ -1759,40 +1759,40 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>3.05</v>
       </c>
       <c r="L10" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
         <v>2.48</v>
       </c>
       <c r="O10" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S10" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="T10" t="n">
         <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>1.45</v>
@@ -1801,16 +1801,16 @@
         <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="AB10" t="n">
         <v>8.199999999999999</v>
@@ -1825,13 +1825,13 @@
         <v>210</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
         <v>290</v>
@@ -1840,7 +1840,7 @@
         <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
         <v>260</v>
@@ -1849,10 +1849,10 @@
         <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.24</v>
@@ -1906,16 +1906,16 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
         <v>1.6</v>
@@ -1924,10 +1924,10 @@
         <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
@@ -1936,13 +1936,13 @@
         <v>3.5</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1966,10 +1966,10 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2035,46 +2035,46 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
         <v>17.5</v>
@@ -2083,7 +2083,7 @@
         <v>170</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>7.6</v>
@@ -2095,16 +2095,16 @@
         <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="n">
         <v>220</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
         <v>1.35</v>
@@ -2167,46 +2167,46 @@
         <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="U13" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V13" t="n">
         <v>3.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>6</v>
@@ -2221,19 +2221,19 @@
         <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>130</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="n">
         <v>55</v>
@@ -2242,22 +2242,22 @@
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>990</v>
+        <v>770</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AL13" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2302,10 +2302,10 @@
         <v>5.9</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2317,19 +2317,19 @@
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S14" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
         <v>2.06</v>
@@ -2338,7 +2338,7 @@
         <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="X14" t="n">
         <v>970</v>
@@ -2356,7 +2356,7 @@
         <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>970</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
         <v>14</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,64 +2422,64 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.55</v>
       </c>
-      <c r="O15" t="n">
+      <c r="T15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.31</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
         <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,10 +2488,10 @@
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
         <v>500</v>
@@ -2503,10 +2503,10 @@
         <v>28</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2557,61 +2557,61 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
         <v>2.08</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
         <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>7.2</v>
@@ -2626,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
         <v>11.5</v>
@@ -2644,19 +2644,19 @@
         <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
         <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AL16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
         <v>130</v>
@@ -2692,43 +2692,43 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I17" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
         <v>4.1</v>
@@ -2740,19 +2740,19 @@
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA17" t="n">
         <v>32</v>
@@ -2827,61 +2827,61 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
         <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
@@ -2890,19 +2890,19 @@
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="n">
         <v>9.199999999999999</v>
@@ -2914,25 +2914,25 @@
         <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO18" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="n">
         <v>6.4</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="n">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>480</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20">
@@ -3103,7 +3103,7 @@
         <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
         <v>2.16</v>
@@ -3115,25 +3115,25 @@
         <v>3.45</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
         <v>3.8</v>
@@ -3151,7 +3151,7 @@
         <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>9.4</v>
@@ -3160,7 +3160,7 @@
         <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
         <v>14.5</v>
@@ -3181,19 +3181,19 @@
         <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
         <v>40</v>
       </c>
       <c r="AJ20" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="n">
         <v>120</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I21" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3250,19 +3250,19 @@
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
         <v>2.04</v>
@@ -3271,7 +3271,7 @@
         <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T21" t="n">
         <v>1.84</v>
@@ -3280,10 +3280,10 @@
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3295,10 +3295,10 @@
         <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.8</v>
@@ -3307,10 +3307,10 @@
         <v>11</v>
       </c>
       <c r="AE21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="n">
         <v>26</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3322,19 +3322,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO21" t="n">
         <v>19.5</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
-        <v>2.68</v>
+        <v>2.26</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="M22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.13</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.15</v>
-      </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="U22" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="X22" t="n">
         <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="Z22" t="n">
         <v>500</v>
@@ -3433,10 +3433,10 @@
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
         <v>970</v>
@@ -3445,10 +3445,10 @@
         <v>500</v>
       </c>
       <c r="AF22" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AG22" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
@@ -3460,7 +3460,7 @@
         <v>220</v>
       </c>
       <c r="AK22" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AL22" t="n">
         <v>500</v>
@@ -3511,7 +3511,7 @@
         <v>2.84</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="J23" t="n">
         <v>3</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G24" t="n">
         <v>8.199999999999999</v>
@@ -3646,7 +3646,7 @@
         <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J24" t="n">
         <v>5.2</v>
@@ -3655,49 +3655,49 @@
         <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="W24" t="n">
         <v>1.13</v>
       </c>
       <c r="X24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
@@ -3709,7 +3709,7 @@
         <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>14</v>
@@ -3721,28 +3721,28 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
@@ -3784,46 +3784,46 @@
         <v>3.75</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V25" t="n">
         <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3853,31 +3853,31 @@
         <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM25" t="n">
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="G26" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H26" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3931,88 +3931,88 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W26" t="n">
         <v>3.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W26" t="n">
-        <v>3.1</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
         <v>150</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L27" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
         <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="X27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB27" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AO27" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4189,34 +4189,34 @@
         <v>2.94</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
         <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
         <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.93</v>
@@ -4225,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W28" t="n">
         <v>1.56</v>
@@ -4237,7 +4237,7 @@
         <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
         <v>50</v>
@@ -4282,7 +4282,7 @@
         <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -4312,82 +4312,82 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
         <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
         <v>3.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
         <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V29" t="n">
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X29" t="n">
         <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
         <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="n">
         <v>8.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="n">
         <v>13.5</v>
@@ -4399,22 +4399,22 @@
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK29" t="n">
         <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM29" t="n">
         <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
         <v>60</v>
@@ -4447,58 +4447,58 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="I30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V30" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W30" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
@@ -4510,7 +4510,7 @@
         <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
@@ -4522,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AF30" t="n">
         <v>34</v>
@@ -4543,7 +4543,7 @@
         <v>190</v>
       </c>
       <c r="AL30" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4606,28 +4606,28 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S31" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V31" t="n">
         <v>1.08</v>
@@ -4639,7 +4639,7 @@
         <v>15.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="n">
         <v>110</v>
@@ -4687,7 +4687,7 @@
         <v>6.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H32" t="n">
         <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
         <v>1.47</v>
@@ -4741,13 +4741,13 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q32" t="n">
         <v>2.2</v>
@@ -4759,16 +4759,16 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
         <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4783,7 +4783,7 @@
         <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
@@ -4813,7 +4813,7 @@
         <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
@@ -4822,7 +4822,7 @@
         <v>24</v>
       </c>
       <c r="AO32" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4852,61 +4852,61 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="G33" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I33" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.37</v>
       </c>
       <c r="P33" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U33" t="n">
         <v>1.81</v>
       </c>
       <c r="V33" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W33" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
@@ -4915,7 +4915,7 @@
         <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -682,7 +682,7 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -694,10 +694,10 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
         <v>2.12</v>
@@ -721,10 +721,10 @@
         <v>2.46</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>75</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -757,13 +757,13 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.47</v>
@@ -826,88 +826,88 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
         <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE3" t="n">
         <v>95</v>
       </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>370</v>
-      </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>290</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
         <v>20</v>
       </c>
-      <c r="Y4" t="n">
-        <v>16</v>
-      </c>
       <c r="Z4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,22 +1006,22 @@
         <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>3.35</v>
@@ -1096,10 +1096,10 @@
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
         <v>1.45</v>
@@ -1126,10 +1126,10 @@
         <v>1.98</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,19 +1141,19 @@
         <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
@@ -1165,7 +1165,7 @@
         <v>130</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
         <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="M6" t="n">
         <v>1.16</v>
@@ -1234,13 +1234,13 @@
         <v>2.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="P6" t="n">
         <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.12</v>
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W6" t="n">
         <v>1.65</v>
@@ -1276,40 +1276,40 @@
         <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AJ6" t="n">
         <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="AM6" t="n">
         <v>340</v>
       </c>
       <c r="AN6" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
         <v>150</v>
@@ -1342,76 +1342,76 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H7" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
         <v>19.5</v>
@@ -1432,19 +1432,19 @@
         <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
         <v>30</v>
@@ -1489,10 +1489,10 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.65</v>
@@ -1501,10 +1501,10 @@
         <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P8" t="n">
         <v>1.44</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G9" t="n">
         <v>4.4</v>
@@ -1621,13 +1621,13 @@
         <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="L9" t="n">
         <v>1.62</v>
@@ -1636,13 +1636,13 @@
         <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
         <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
         <v>2.86</v>
@@ -1660,10 +1660,10 @@
         <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
         <v>7.6</v>
@@ -1690,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="L10" t="n">
         <v>1.64</v>
@@ -1771,13 +1771,13 @@
         <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="P10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q10" t="n">
         <v>2.96</v>
@@ -1789,7 +1789,7 @@
         <v>6.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
         <v>1.74</v>
@@ -1801,19 +1801,19 @@
         <v>1.5</v>
       </c>
       <c r="X10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB10" t="n">
         <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
@@ -1822,10 +1822,10 @@
         <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
         <v>14</v>
@@ -1837,22 +1837,22 @@
         <v>290</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="H11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1918,31 +1918,31 @@
         <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
         <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1963,13 +1963,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
@@ -1978,13 +1978,13 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
         <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
         <v>2.7</v>
@@ -2032,7 +2032,7 @@
         <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,22 +2041,22 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P12" t="n">
         <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T12" t="n">
         <v>1.95</v>
@@ -2068,13 +2068,13 @@
         <v>1.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
         <v>17.5</v>
@@ -2089,10 +2089,10 @@
         <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2101,7 +2101,7 @@
         <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>290</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="H13" t="n">
         <v>1.34</v>
@@ -2164,10 +2164,10 @@
         <v>1.35</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2176,13 +2176,13 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
         <v>2.08</v>
@@ -2194,16 +2194,16 @@
         <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="U13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V13" t="n">
         <v>3.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X13" t="n">
         <v>16.5</v>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>14</v>
@@ -2239,16 +2239,16 @@
         <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="AK13" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AL13" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AM13" t="n">
         <v>390</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2302,7 +2302,7 @@
         <v>5.9</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2311,7 +2311,7 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
@@ -2326,7 +2326,7 @@
         <v>1.79</v>
       </c>
       <c r="S14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
         <v>1.8</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>1.42</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O15" t="n">
         <v>1.32</v>
@@ -2458,13 +2458,13 @@
         <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
         <v>3.55</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
         <v>2.08</v>
@@ -2473,7 +2473,7 @@
         <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
         <v>28</v>
@@ -2560,10 +2560,10 @@
         <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>2.08</v>
@@ -2575,7 +2575,7 @@
         <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M16" t="n">
         <v>1.11</v>
@@ -2593,22 +2593,22 @@
         <v>2.48</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
         <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
         <v>9.199999999999999</v>
@@ -2620,10 +2620,10 @@
         <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.4</v>
@@ -2662,7 +2662,7 @@
         <v>130</v>
       </c>
       <c r="AO16" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.9</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.95</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.45</v>
@@ -2716,34 +2716,34 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
@@ -2770,10 +2770,10 @@
         <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -2782,7 +2782,7 @@
         <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
@@ -2830,19 +2830,19 @@
         <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H18" t="n">
         <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J18" t="n">
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.42</v>
@@ -2851,7 +2851,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2860,7 +2860,7 @@
         <v>1.97</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>1.37</v>
@@ -2869,19 +2869,19 @@
         <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
@@ -2890,16 +2890,16 @@
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>100</v>
@@ -2914,10 +2914,10 @@
         <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK18" t="n">
         <v>17.5</v>
@@ -2926,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
         <v>9.800000000000001</v>
@@ -2965,7 +2965,7 @@
         <v>1.27</v>
       </c>
       <c r="G19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H19" t="n">
         <v>14</v>
@@ -2974,13 +2974,13 @@
         <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K19" t="n">
         <v>6.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -2989,37 +2989,37 @@
         <v>5.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T19" t="n">
         <v>2.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
         <v>150</v>
@@ -3028,31 +3028,31 @@
         <v>770</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>55</v>
       </c>
       <c r="AE19" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK19" t="n">
         <v>14</v>
@@ -3061,13 +3061,13 @@
         <v>44</v>
       </c>
       <c r="AM19" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="n">
         <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3124,10 +3124,10 @@
         <v>3.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q20" t="n">
         <v>2.06</v>
@@ -3136,19 +3136,19 @@
         <v>1.34</v>
       </c>
       <c r="S20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -3166,7 +3166,7 @@
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
@@ -3184,19 +3184,19 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
         <v>85</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AL20" t="n">
         <v>250</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>60</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G21" t="n">
         <v>3.7</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3250,7 +3250,7 @@
         <v>3.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,10 +3262,10 @@
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
         <v>1.34</v>
@@ -3280,10 +3280,10 @@
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3292,7 +3292,7 @@
         <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
         <v>28</v>
@@ -3304,13 +3304,13 @@
         <v>7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3322,7 +3322,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
         <v>44</v>
@@ -3337,7 +3337,7 @@
         <v>46</v>
       </c>
       <c r="AO21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I22" t="n">
         <v>4.2</v>
       </c>
-      <c r="I22" t="n">
-        <v>4.9</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="K22" t="n">
         <v>3.15</v>
@@ -3388,25 +3388,25 @@
         <v>1.71</v>
       </c>
       <c r="M22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
         <v>2.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R22" t="n">
         <v>1.13</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T22" t="n">
         <v>2.36</v>
@@ -3415,10 +3415,10 @@
         <v>1.6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="W22" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
         <v>13.5</v>
@@ -3523,7 +3523,7 @@
         <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
         <v>1.86</v>
@@ -3637,40 +3637,40 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H24" t="n">
         <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R24" t="n">
         <v>1.54</v>
@@ -3679,13 +3679,13 @@
         <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W24" t="n">
         <v>1.13</v>
@@ -3697,7 +3697,7 @@
         <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
@@ -3718,22 +3718,22 @@
         <v>70</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="AK24" t="n">
         <v>110</v>
       </c>
       <c r="AL24" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>120</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="25">
@@ -3805,7 +3805,7 @@
         <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
         <v>1.27</v>
@@ -3814,16 +3814,16 @@
         <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3841,7 +3841,7 @@
         <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
         <v>15.5</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.42</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I26" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3949,31 +3949,31 @@
         <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X26" t="n">
         <v>16.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -3982,7 +3982,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="n">
         <v>7.8</v>
@@ -3991,10 +3991,10 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
         <v>11.5</v>
@@ -4012,7 +4012,7 @@
         <v>6.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
@@ -4045,10 +4045,10 @@
         <v>2.9</v>
       </c>
       <c r="G27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I27" t="n">
         <v>3.2</v>
@@ -4093,7 +4093,7 @@
         <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X27" t="n">
         <v>8.4</v>
@@ -4180,13 +4180,13 @@
         <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I28" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4207,10 +4207,10 @@
         <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
         <v>1.28</v>
@@ -4222,10 +4222,10 @@
         <v>1.93</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W28" t="n">
         <v>1.56</v>
@@ -4237,7 +4237,7 @@
         <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>50</v>
@@ -4282,7 +4282,7 @@
         <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -4318,10 +4318,10 @@
         <v>2.32</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -4447,70 +4447,70 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="I30" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U30" t="n">
         <v>1.82</v>
       </c>
       <c r="V30" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="W30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
         <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
@@ -4522,16 +4522,16 @@
         <v>12</v>
       </c>
       <c r="AE30" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4540,7 +4540,7 @@
         <v>900</v>
       </c>
       <c r="AK30" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4552,7 +4552,7 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4588,16 +4588,16 @@
         <v>1.38</v>
       </c>
       <c r="H31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
         <v>12.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
@@ -4609,13 +4609,13 @@
         <v>4.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
         <v>2.06</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R31" t="n">
         <v>1.39</v>
@@ -4627,10 +4627,10 @@
         <v>2.34</v>
       </c>
       <c r="U31" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W31" t="n">
         <v>3.6</v>
@@ -4654,13 +4654,13 @@
         <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE31" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
@@ -4669,7 +4669,7 @@
         <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
@@ -4687,7 +4687,7 @@
         <v>6.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32">
@@ -4747,25 +4747,25 @@
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
         <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
         <v>1.69</v>
@@ -4783,16 +4783,16 @@
         <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
         <v>7.2</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF32" t="n">
         <v>14</v>
@@ -4801,7 +4801,7 @@
         <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI32" t="n">
         <v>60</v>
@@ -4816,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
         <v>24</v>
@@ -4864,40 +4864,40 @@
         <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
         <v>1.19</v>
@@ -4906,7 +4906,7 @@
         <v>2.34</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
         <v>2.12</v>
@@ -718,13 +718,13 @@
         <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
         <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -739,16 +739,16 @@
         <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>65</v>
@@ -760,7 +760,7 @@
         <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
         <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>2.18</v>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
         <v>42</v>
@@ -874,10 +874,10 @@
         <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -886,22 +886,22 @@
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ3" t="n">
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
         <v>15.5</v>
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,22 +1003,22 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
         <v>44</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>14</v>
@@ -1153,7 +1153,7 @@
         <v>40</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
         <v>1.71</v>
@@ -1231,7 +1231,7 @@
         <v>1.16</v>
       </c>
       <c r="N6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O6" t="n">
         <v>1.72</v>
@@ -1240,40 +1240,40 @@
         <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
         <v>8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="X6" t="n">
         <v>6.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC6" t="n">
         <v>7.2</v>
@@ -1282,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1294,25 +1294,25 @@
         <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ6" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
         <v>340</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.8</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.76</v>
-      </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.12</v>
       </c>
       <c r="V7" t="n">
         <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
         <v>17.5</v>
@@ -1411,22 +1411,22 @@
         <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
         <v>46</v>
@@ -1441,13 +1441,13 @@
         <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
         <v>1.91</v>
@@ -1486,13 +1486,13 @@
         <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.65</v>
@@ -1504,31 +1504,31 @@
         <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
         <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
         <v>8</v>
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
         <v>4.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S9" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W9" t="n">
         <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y9" t="n">
         <v>7.4</v>
@@ -1678,7 +1678,7 @@
         <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
         <v>30</v>
@@ -1696,28 +1696,28 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
         <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AN9" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AO9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.05</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="L10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O10" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>1.16</v>
       </c>
       <c r="S10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
         <v>7.8</v>
@@ -1822,7 +1822,7 @@
         <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>17.5</v>
@@ -1834,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
         <v>55</v>
@@ -1843,7 +1843,7 @@
         <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>230</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>5.3</v>
@@ -1912,25 +1912,25 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
         <v>3.25</v>
@@ -1942,7 +1942,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1966,13 +1966,13 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -2020,19 +2020,19 @@
         <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,16 +2041,16 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2062,25 +2062,25 @@
         <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="n">
         <v>10</v>
@@ -2092,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2104,13 +2104,13 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
         <v>220</v>
       </c>
       <c r="AK12" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
@@ -2122,7 +2122,7 @@
         <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2167,7 +2167,7 @@
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2176,25 +2176,25 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="U13" t="n">
         <v>1.55</v>
@@ -2203,13 +2203,13 @@
         <v>3.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Z13" t="n">
         <v>6.4</v>
@@ -2221,40 +2221,40 @@
         <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="n">
         <v>55</v>
       </c>
       <c r="AH13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="AK13" t="n">
         <v>340</v>
       </c>
       <c r="AL13" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AM13" t="n">
         <v>390</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>690</v>
       </c>
       <c r="AO13" t="n">
         <v>7.8</v>
@@ -2299,7 +2299,7 @@
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -2314,22 +2314,22 @@
         <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>2.12</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
         <v>2.06</v>
@@ -2344,7 +2344,7 @@
         <v>970</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2359,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2371,7 +2371,7 @@
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2383,7 +2383,7 @@
         <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2425,22 +2425,22 @@
         <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2470,22 +2470,22 @@
         <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
         <v>28</v>
       </c>
       <c r="Y15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="n">
         <v>500</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB15" t="n">
         <v>9</v>
@@ -2494,28 +2494,28 @@
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="n">
         <v>500</v>
       </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AK15" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16">
@@ -2560,10 +2560,10 @@
         <v>4.6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I16" t="n">
         <v>2.08</v>
@@ -2581,7 +2581,7 @@
         <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O16" t="n">
         <v>1.48</v>
@@ -2590,7 +2590,7 @@
         <v>1.65</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
         <v>1.23</v>
@@ -2599,16 +2599,16 @@
         <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
         <v>1.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
         <v>9.199999999999999</v>
@@ -2650,16 +2650,16 @@
         <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="AM16" t="n">
         <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -2701,7 +2701,7 @@
         <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
@@ -2728,7 +2728,7 @@
         <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
         <v>4</v>
@@ -2740,7 +2740,7 @@
         <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
         <v>1.34</v>
@@ -2773,7 +2773,7 @@
         <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="G18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I18" t="n">
         <v>6.8</v>
@@ -2851,40 +2851,40 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
@@ -2896,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AF18" t="n">
         <v>9.199999999999999</v>
@@ -2911,16 +2911,16 @@
         <v>9.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="AJ18" t="n">
         <v>15.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>38</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="J19" t="n">
         <v>6.6</v>
@@ -2986,58 +2986,58 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="T19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Z19" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA19" t="n">
-        <v>770</v>
+        <v>870</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE19" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AF19" t="n">
         <v>7.4</v>
@@ -3046,13 +3046,13 @@
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>14</v>
@@ -3064,10 +3064,10 @@
         <v>220</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
         <v>4.3</v>
@@ -3106,7 +3106,7 @@
         <v>2.12</v>
       </c>
       <c r="I20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3142,7 +3142,7 @@
         <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
         <v>1.87</v>
@@ -3151,7 +3151,7 @@
         <v>1.3</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.4</v>
@@ -3166,7 +3166,7 @@
         <v>14.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
         <v>10.5</v>
@@ -3190,13 +3190,13 @@
         <v>85</v>
       </c>
       <c r="AK20" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="n">
         <v>250</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
         <v>60</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.24</v>
       </c>
       <c r="J21" t="n">
         <v>3.55</v>
@@ -3253,7 +3253,7 @@
         <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>3.7</v>
@@ -3262,7 +3262,7 @@
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
@@ -3274,25 +3274,25 @@
         <v>3.75</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>28</v>
@@ -3301,16 +3301,16 @@
         <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>15</v>
@@ -3322,22 +3322,22 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AK21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>46</v>
       </c>
       <c r="AO21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.71</v>
@@ -3391,49 +3391,49 @@
         <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O22" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="T22" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="X22" t="n">
         <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
         <v>500</v>
       </c>
       <c r="AA22" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC22" t="n">
         <v>13</v>
@@ -3469,10 +3469,10 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3505,31 +3505,31 @@
         <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
         <v>1.86</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
         <v>1.28</v>
@@ -3538,7 +3538,7 @@
         <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
         <v>2.12</v>
@@ -3550,10 +3550,10 @@
         <v>1.05</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G24" t="n">
         <v>8.6</v>
       </c>
       <c r="H24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.46</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.47</v>
-      </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3661,16 +3661,16 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
         <v>1.54</v>
@@ -3679,13 +3679,13 @@
         <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
         <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W24" t="n">
         <v>1.13</v>
@@ -3709,19 +3709,19 @@
         <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
         <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>32</v>
@@ -3730,10 +3730,10 @@
         <v>310</v>
       </c>
       <c r="AK24" t="n">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM24" t="n">
         <v>120</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>2.28</v>
       </c>
       <c r="G25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
@@ -3787,7 +3787,7 @@
         <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.5</v>
@@ -3796,40 +3796,40 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
         <v>24</v>
@@ -3838,7 +3838,7 @@
         <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
@@ -3847,34 +3847,34 @@
         <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF25" t="n">
         <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
         <v>60</v>
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.41</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.42</v>
-      </c>
       <c r="H26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
         <v>10.5</v>
@@ -3922,7 +3922,7 @@
         <v>5.2</v>
       </c>
       <c r="K26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3934,7 +3934,7 @@
         <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
         <v>2.12</v>
@@ -3949,10 +3949,10 @@
         <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
         <v>1.1</v>
@@ -3961,7 +3961,7 @@
         <v>3.4</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
         <v>30</v>
@@ -3970,34 +3970,34 @@
         <v>90</v>
       </c>
       <c r="AA26" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="AB26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -4006,7 +4006,7 @@
         <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
         <v>6.8</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G27" t="n">
         <v>3.1</v>
@@ -4051,7 +4051,7 @@
         <v>2.94</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
         <v>2.8</v>
@@ -4060,13 +4060,13 @@
         <v>3.05</v>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M27" t="n">
         <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O27" t="n">
         <v>1.56</v>
@@ -4090,7 +4090,7 @@
         <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
         <v>1.48</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.76</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.98</v>
       </c>
       <c r="J28" t="n">
         <v>3.3</v>
@@ -4213,7 +4213,7 @@
         <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
         <v>4.4</v>
@@ -4225,52 +4225,52 @@
         <v>2.02</v>
       </c>
       <c r="V28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.56</v>
       </c>
       <c r="X28" t="n">
         <v>11</v>
       </c>
       <c r="Y28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB28" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG28" t="n">
         <v>13</v>
       </c>
-      <c r="AE28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK28" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -4279,10 +4279,10 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -4315,16 +4315,16 @@
         <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
         <v>3.35</v>
@@ -4342,7 +4342,7 @@
         <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q29" t="n">
         <v>2.3</v>
@@ -4363,13 +4363,13 @@
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
         <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>25</v>
@@ -4378,22 +4378,22 @@
         <v>80</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF29" t="n">
         <v>13.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>20</v>
@@ -4414,7 +4414,7 @@
         <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>60</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
         <v>2.28</v>
@@ -4462,7 +4462,7 @@
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
         <v>1.52</v>
@@ -4471,10 +4471,10 @@
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
         <v>1.63</v>
@@ -4486,7 +4486,7 @@
         <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T30" t="n">
         <v>1.99</v>
@@ -4495,10 +4495,10 @@
         <v>1.82</v>
       </c>
       <c r="V30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4510,7 +4510,7 @@
         <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
@@ -4540,7 +4540,7 @@
         <v>900</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4591,7 +4591,7 @@
         <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J31" t="n">
         <v>5.3</v>
@@ -4627,7 +4627,7 @@
         <v>2.34</v>
       </c>
       <c r="U31" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V31" t="n">
         <v>1.09</v>
@@ -4636,22 +4636,22 @@
         <v>3.6</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y31" t="n">
         <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA31" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AB31" t="n">
         <v>7.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
         <v>42</v>
@@ -4666,28 +4666,28 @@
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL31" t="n">
         <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN31" t="n">
         <v>6.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
@@ -4741,16 +4741,16 @@
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R32" t="n">
         <v>1.31</v>
@@ -4762,13 +4762,13 @@
         <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
         <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4777,25 +4777,25 @@
         <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
         <v>11.5</v>
@@ -4804,10 +4804,10 @@
         <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK32" t="n">
         <v>27</v>
@@ -4819,10 +4819,10 @@
         <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO32" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -4852,52 +4852,52 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G33" t="n">
         <v>1.74</v>
       </c>
       <c r="H33" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I33" t="n">
         <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>1.46</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P33" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
         <v>1.19</v>
@@ -4906,7 +4906,7 @@
         <v>2.34</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.46</v>
@@ -691,19 +691,19 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
         <v>4.1</v>
@@ -712,64 +712,64 @@
         <v>2.12</v>
       </c>
       <c r="U2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V2" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
         <v>1.85</v>
@@ -814,100 +814,100 @@
         <v>5.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
         <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="n">
         <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -961,19 +961,19 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
         <v>3.85</v>
@@ -982,58 +982,58 @@
         <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="X4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>32</v>
-      </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,88 +1072,88 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U5" t="n">
         <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AF5" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
         <v>2.98</v>
@@ -1225,94 +1225,94 @@
         <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O6" t="n">
         <v>1.72</v>
       </c>
       <c r="P6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R6" t="n">
         <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
         <v>1.75</v>
       </c>
       <c r="X6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>6.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AI6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AN6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.25</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AF7" t="n">
         <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M8" t="n">
         <v>1.15</v>
@@ -1504,10 +1504,10 @@
         <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
         <v>3</v>
@@ -1516,25 +1516,25 @@
         <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>500</v>
@@ -1543,37 +1543,37 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="K9" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="L9" t="n">
         <v>1.65</v>
@@ -1642,43 +1642,43 @@
         <v>1.64</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U9" t="n">
         <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X9" t="n">
         <v>7.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -1687,37 +1687,37 @@
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
         <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AM9" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AN9" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1747,79 +1747,79 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G10" t="n">
         <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="R10" t="n">
         <v>1.16</v>
       </c>
       <c r="S10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
         <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>55</v>
@@ -1843,16 +1843,16 @@
         <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
         <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
@@ -1906,28 +1906,28 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
         <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.11</v>
@@ -1942,7 +1942,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,16 +1951,16 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.68</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -2041,58 +2041,58 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
         <v>1.46</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2104,13 +2104,13 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
@@ -2119,10 +2119,10 @@
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="G13" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="I13" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X13" t="n">
         <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AG13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="n">
         <v>55</v>
       </c>
-      <c r="AH13" t="n">
-        <v>48</v>
-      </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="AL13" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="AM13" t="n">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="AN13" t="n">
-        <v>690</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
@@ -2305,28 +2305,28 @@
         <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q14" t="n">
         <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T14" t="n">
         <v>1.79</v>
@@ -2341,7 +2341,7 @@
         <v>3.7</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>110</v>
@@ -2371,7 +2371,7 @@
         <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
@@ -2383,7 +2383,7 @@
         <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2434,82 +2434,82 @@
         <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ15" t="n">
         <v>500</v>
@@ -2518,7 +2518,7 @@
         <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.02</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="W16" t="n">
         <v>1.23</v>
       </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.26</v>
-      </c>
       <c r="X16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO16" t="n">
         <v>25</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2692,97 +2692,97 @@
         </is>
       </c>
       <c r="F17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.7</v>
       </c>
-      <c r="G17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.31</v>
       </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.34</v>
-      </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF17" t="n">
         <v>32</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>26</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -2827,49 +2827,49 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.64</v>
       </c>
-      <c r="G18" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
         <v>6.8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
         <v>1.99</v>
@@ -2878,13 +2878,13 @@
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
@@ -2896,40 +2896,40 @@
         <v>8</v>
       </c>
       <c r="AC18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF18" t="n">
         <v>9</v>
       </c>
-      <c r="AD18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AG18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
         <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
         <v>130</v>
@@ -2962,94 +2962,94 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K19" t="n">
         <v>6.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AA19" t="n">
-        <v>870</v>
+        <v>680</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ19" t="n">
         <v>9</v>
@@ -3058,16 +3058,16 @@
         <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO19" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3103,19 +3103,19 @@
         <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3124,28 +3124,28 @@
         <v>3.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q20" t="n">
         <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
         <v>3.75</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="n">
         <v>1.3</v>
@@ -3154,28 +3154,28 @@
         <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
         <v>16.5</v>
@@ -3187,22 +3187,22 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AK20" t="n">
         <v>50</v>
       </c>
       <c r="AL20" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>3.65</v>
@@ -3256,22 +3256,22 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
         <v>1.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T21" t="n">
         <v>1.85</v>
@@ -3280,10 +3280,10 @@
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3292,13 +3292,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC21" t="n">
         <v>8</v>
@@ -3307,13 +3307,13 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>18</v>
@@ -3322,22 +3322,22 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN21" t="n">
         <v>55</v>
       </c>
-      <c r="AM21" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>46</v>
-      </c>
       <c r="AO21" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>2.8</v>
@@ -3397,13 +3397,13 @@
         <v>1.71</v>
       </c>
       <c r="P22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q22" t="n">
         <v>3.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S22" t="n">
         <v>7</v>
@@ -3412,7 +3412,7 @@
         <v>2.3</v>
       </c>
       <c r="U22" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V22" t="n">
         <v>1.33</v>
@@ -3421,10 +3421,10 @@
         <v>1.63</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>19</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
         <v>500</v>
@@ -3433,22 +3433,22 @@
         <v>500</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AE22" t="n">
         <v>500</v>
       </c>
       <c r="AF22" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH22" t="n">
         <v>970</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.15</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.86</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W23" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>500</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -3637,28 +3637,28 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="I24" t="n">
         <v>1.46</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K24" t="n">
         <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
         <v>5.2</v>
@@ -3673,16 +3673,16 @@
         <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
         <v>3.15</v>
@@ -3691,19 +3691,19 @@
         <v>1.13</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z24" t="n">
         <v>9.6</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9.4</v>
       </c>
       <c r="AA24" t="n">
         <v>12.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC24" t="n">
         <v>11.5</v>
@@ -3715,28 +3715,28 @@
         <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>32</v>
       </c>
       <c r="AJ24" t="n">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="AK24" t="n">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="n">
         <v>100</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
         <v>3.35</v>
@@ -3799,31 +3799,31 @@
         <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3832,25 +3832,25 @@
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
         <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -3859,10 +3859,10 @@
         <v>20</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
         <v>26</v>
@@ -3871,10 +3871,10 @@
         <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
         <v>60</v>
@@ -3913,16 +3913,16 @@
         <v>1.41</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>5.2</v>
       </c>
       <c r="K26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3931,46 +3931,46 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
         <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V26" t="n">
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA26" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="AB26" t="n">
         <v>7.8</v>
@@ -3982,7 +3982,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="n">
         <v>7.4</v>
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI26" t="n">
         <v>160</v>
@@ -4000,19 +4000,19 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>2.88</v>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H27" t="n">
         <v>2.94</v>
@@ -4054,7 +4054,7 @@
         <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K27" t="n">
         <v>3.05</v>
@@ -4069,7 +4069,7 @@
         <v>2.58</v>
       </c>
       <c r="O27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
         <v>1.5</v>
@@ -4084,10 +4084,10 @@
         <v>5.7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
         <v>1.45</v>
@@ -4099,13 +4099,13 @@
         <v>8.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
         <v>8.6</v>
@@ -4114,7 +4114,7 @@
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
         <v>55</v>
@@ -4123,13 +4123,13 @@
         <v>18.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="AJ27" t="n">
         <v>130</v>
@@ -4138,13 +4138,13 @@
         <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AO27" t="n">
         <v>70</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G28" t="n">
         <v>2.94</v>
       </c>
-      <c r="G28" t="n">
-        <v>3</v>
-      </c>
       <c r="H28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
         <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4228,7 +4228,7 @@
         <v>1.56</v>
       </c>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X28" t="n">
         <v>11</v>
@@ -4243,7 +4243,7 @@
         <v>42</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
         <v>7.2</v>
@@ -4252,7 +4252,7 @@
         <v>12.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF28" t="n">
         <v>18</v>
@@ -4270,7 +4270,7 @@
         <v>48</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
         <v>55</v>
@@ -4279,7 +4279,7 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO28" t="n">
         <v>32</v>
@@ -4318,10 +4318,10 @@
         <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -4342,7 +4342,7 @@
         <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
         <v>2.3</v>
@@ -4357,7 +4357,7 @@
         <v>1.96</v>
       </c>
       <c r="U29" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V29" t="n">
         <v>1.35</v>
@@ -4366,7 +4366,7 @@
         <v>1.76</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -4396,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
         <v>70</v>
@@ -4408,7 +4408,7 @@
         <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
         <v>130</v>
@@ -4450,25 +4450,25 @@
         <v>3.7</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
         <v>2.28</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
         <v>2.92</v>
@@ -4498,7 +4498,7 @@
         <v>1.72</v>
       </c>
       <c r="W30" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
         <v>10.5</v>
@@ -4525,19 +4525,19 @@
         <v>32</v>
       </c>
       <c r="AF30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG30" t="n">
         <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AK30" t="n">
         <v>190</v>
@@ -4549,10 +4549,10 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31">
@@ -4591,13 +4591,13 @@
         <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J31" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.39</v>
@@ -4606,88 +4606,88 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R31" t="n">
         <v>1.39</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T31" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U31" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="V31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W31" t="n">
         <v>3.6</v>
       </c>
       <c r="X31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z31" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA31" t="n">
         <v>580</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC31" t="n">
         <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE31" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
         <v>6.8</v>
       </c>
       <c r="AO31" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32">
@@ -4717,25 +4717,25 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G32" t="n">
         <v>2.44</v>
       </c>
-      <c r="G32" t="n">
-        <v>2.46</v>
-      </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="n">
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
@@ -4747,10 +4747,10 @@
         <v>1.38</v>
       </c>
       <c r="P32" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
         <v>1.31</v>
@@ -4762,13 +4762,13 @@
         <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4780,22 +4780,22 @@
         <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
         <v>11.5</v>
@@ -4807,13 +4807,13 @@
         <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
         <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
         <v>110</v>
@@ -4822,7 +4822,7 @@
         <v>23</v>
       </c>
       <c r="AO32" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -4855,10 +4855,10 @@
         <v>1.71</v>
       </c>
       <c r="G33" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
         <v>6.6</v>
@@ -4879,16 +4879,16 @@
         <v>3.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
         <v>4.2</v>
@@ -4897,16 +4897,16 @@
         <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V33" t="n">
         <v>1.19</v>
       </c>
       <c r="W33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y33" t="n">
         <v>1000</v>
@@ -4915,10 +4915,10 @@
         <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC33" t="n">
         <v>1000</v>
@@ -4951,7 +4951,7 @@
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>2.44</v>
       </c>
       <c r="H2" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>2.16</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.54</v>
+        <v>1.69</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>710</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>1.96</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2.04</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>4.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>7.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.13</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>2.44</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
         <v>21</v>
       </c>
-      <c r="AE3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10</v>
-      </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>430</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.72</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>1.92</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>2.46</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="H5" t="n">
         <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="S5" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
         <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="X5" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>1.31</v>
       </c>
       <c r="G6" t="n">
-        <v>2.32</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>15.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>5.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.17</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.72</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.41</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
         <v>7</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>13</v>
       </c>
-      <c r="AH6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>32</v>
-      </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.94</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.8</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>2.96</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
         <v>18</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="n">
         <v>48</v>
       </c>
-      <c r="AK7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.67</v>
@@ -1510,76 +1510,76 @@
         <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R8" t="n">
         <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W8" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
         <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="I9" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
         <v>1.65</v>
@@ -1636,7 +1636,7 @@
         <v>1.16</v>
       </c>
       <c r="N9" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O9" t="n">
         <v>1.64</v>
@@ -1654,70 +1654,70 @@
         <v>6.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
         <v>12.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF9" t="n">
         <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL9" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
         <v>250</v>
       </c>
       <c r="AN9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1753,55 +1753,55 @@
         <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="L10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P10" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y10" t="n">
         <v>8.6</v>
@@ -1816,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>15</v>
@@ -1831,10 +1831,10 @@
         <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
         <v>55</v>
@@ -1843,16 +1843,16 @@
         <v>48</v>
       </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1912,16 +1912,16 @@
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R11" t="n">
         <v>1.63</v>
       </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
         <v>1.83</v>
@@ -1933,7 +1933,7 @@
         <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
@@ -1963,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
         <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -1987,7 +1987,7 @@
         <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,88 +2017,88 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2110,19 +2110,19 @@
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2155,88 +2155,88 @@
         <v>16.5</v>
       </c>
       <c r="G13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H13" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="I13" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="U13" t="n">
         <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="W13" t="n">
         <v>1.06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB13" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AG13" t="n">
         <v>75</v>
       </c>
       <c r="AH13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2245,19 +2245,19 @@
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="AL13" t="n">
         <v>420</v>
       </c>
       <c r="AM13" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
         <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.25</v>
@@ -2311,34 +2311,34 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T14" t="n">
         <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,13 +2353,13 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
@@ -2368,28 +2368,28 @@
         <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK14" t="n">
         <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2431,46 +2431,46 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
         <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
         <v>1.84</v>
@@ -2479,22 +2479,22 @@
         <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
         <v>290</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>100</v>
@@ -2506,28 +2506,28 @@
         <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="n">
         <v>46</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="I16" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J16" t="n">
         <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="n">
         <v>1.12</v>
       </c>
       <c r="N16" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P16" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V16" t="n">
         <v>2.02</v>
@@ -2617,13 +2617,13 @@
         <v>6.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>7.8</v>
@@ -2659,10 +2659,10 @@
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -2692,64 +2692,64 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
         <v>2.08</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W17" t="n">
         <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>12.5</v>
@@ -2758,31 +2758,31 @@
         <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
         <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
         <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
         <v>55</v>
@@ -2797,7 +2797,7 @@
         <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>1.62</v>
       </c>
       <c r="G18" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H18" t="n">
         <v>6.6</v>
@@ -2857,10 +2857,10 @@
         <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
         <v>1.4</v>
@@ -2872,46 +2872,46 @@
         <v>1.95</v>
       </c>
       <c r="U18" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>700</v>
+        <v>190</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>90</v>
@@ -2923,16 +2923,16 @@
         <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>1.29</v>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,28 +2986,28 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
         <v>1.07</v>
@@ -3016,19 +3016,19 @@
         <v>4.4</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
         <v>42</v>
       </c>
       <c r="Z19" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AA19" t="n">
         <v>680</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>14</v>
@@ -3037,34 +3037,34 @@
         <v>55</v>
       </c>
       <c r="AE19" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG19" t="n">
         <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AK19" t="n">
         <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3106,7 +3106,7 @@
         <v>2.08</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
@@ -3115,52 +3115,52 @@
         <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T20" t="n">
         <v>1.82</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W20" t="n">
         <v>1.3</v>
       </c>
       <c r="X20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>12</v>
-      </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
         <v>15</v>
@@ -3187,7 +3187,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AK20" t="n">
         <v>50</v>
@@ -3196,10 +3196,10 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
@@ -3235,19 +3235,19 @@
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I21" t="n">
         <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -3259,10 +3259,10 @@
         <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
@@ -3274,22 +3274,22 @@
         <v>3.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>12.5</v>
@@ -3304,10 +3304,10 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>29</v>
@@ -3319,7 +3319,7 @@
         <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="n">
         <v>85</v>
@@ -3331,7 +3331,7 @@
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="AN21" t="n">
         <v>55</v>
@@ -3373,13 +3373,13 @@
         <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K22" t="n">
         <v>3.1</v>
@@ -3418,7 +3418,7 @@
         <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
         <v>7.2</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.53</v>
@@ -3526,13 +3526,13 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O23" t="n">
         <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.42</v>
@@ -3544,58 +3544,58 @@
         <v>4.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AJ23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
         <v>60</v>
@@ -3604,10 +3604,10 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="G24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="I24" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="J24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K24" t="n">
         <v>5.2</v>
       </c>
-      <c r="K24" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>9.6</v>
@@ -3709,40 +3709,40 @@
         <v>11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AK24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL24" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.22</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H25" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
         <v>1.5</v>
@@ -3796,13 +3796,13 @@
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q25" t="n">
         <v>2.28</v>
@@ -3814,43 +3814,43 @@
         <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -3877,7 +3877,7 @@
         <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G26" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H26" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K26" t="n">
         <v>5.2</v>
       </c>
-      <c r="K26" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3934,43 +3934,43 @@
         <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U26" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="AB26" t="n">
         <v>7.8</v>
@@ -3979,22 +3979,22 @@
         <v>11.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
@@ -4006,13 +4006,13 @@
         <v>40</v>
       </c>
       <c r="AM26" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -4138,7 +4138,7 @@
         <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AM27" t="n">
         <v>500</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H28" t="n">
         <v>2.74</v>
       </c>
       <c r="I28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J28" t="n">
         <v>3.35</v>
@@ -4207,7 +4207,7 @@
         <v>1.42</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
         <v>2.28</v>
@@ -4279,7 +4279,7 @@
         <v>120</v>
       </c>
       <c r="AN28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
         <v>32</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G29" t="n">
         <v>2.28</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -4336,10 +4336,10 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P29" t="n">
         <v>1.74</v>
@@ -4348,22 +4348,22 @@
         <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.98</v>
       </c>
       <c r="V29" t="n">
         <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4381,7 +4381,7 @@
         <v>8.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
         <v>15.5</v>
@@ -4390,13 +4390,13 @@
         <v>50</v>
       </c>
       <c r="AF29" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
         <v>70</v>
@@ -4417,7 +4417,7 @@
         <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -4585,10 +4585,10 @@
         <v>1.37</v>
       </c>
       <c r="G31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I31" t="n">
         <v>12.5</v>
@@ -4606,25 +4606,25 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R31" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U31" t="n">
         <v>1.66</v>
@@ -4633,7 +4633,7 @@
         <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="X31" t="n">
         <v>16</v>
@@ -4645,7 +4645,7 @@
         <v>110</v>
       </c>
       <c r="AA31" t="n">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AB31" t="n">
         <v>7</v>
@@ -4672,7 +4672,7 @@
         <v>220</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK31" t="n">
         <v>16</v>
@@ -4681,13 +4681,13 @@
         <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H32" t="n">
         <v>3.45</v>
@@ -4732,46 +4732,46 @@
         <v>3.3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O32" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.39</v>
       </c>
       <c r="W32" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -4783,7 +4783,7 @@
         <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
         <v>7.4</v>
@@ -4801,10 +4801,10 @@
         <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
         <v>32</v>
@@ -4813,16 +4813,16 @@
         <v>27</v>
       </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -4861,7 +4861,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J33" t="n">
         <v>3.75</v>
@@ -4882,10 +4882,10 @@
         <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R33" t="n">
         <v>1.29</v>
@@ -4897,10 +4897,10 @@
         <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W33" t="n">
         <v>2.32</v>
@@ -4918,7 +4918,7 @@
         <v>240</v>
       </c>
       <c r="AB33" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:40:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,28 +733,28 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,10 +763,10 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Zulfi SC</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>7.6</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>2.16</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>2.26</v>
       </c>
       <c r="J3" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>16</v>
+        <v>1.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>65</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.81</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="X3" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>3.35</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>3.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>430</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:45:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Faisaly ( KSA )</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>1.68</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1.92</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>2.46</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>2.46</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,52 +1003,52 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>990</v>
+        <v>210</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al Draih</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ASO Chlef</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.54</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.86</v>
+        <v>2.48</v>
       </c>
       <c r="X5" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AO5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,75 +1193,75 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MB Rouissat</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>2.72</v>
       </c>
       <c r="H6" t="n">
-        <v>15.5</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>3.15</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,52 +1273,52 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="AE6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Metaloglobus Bucuresti</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="n">
         <v>9</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AH7" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>540</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>410</v>
       </c>
       <c r="AM7" t="n">
-        <v>75</v>
+        <v>690</v>
       </c>
       <c r="AN7" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>NK Celje</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.42</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.05</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>2.44</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.22</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="V9" t="n">
-        <v>1.81</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="X9" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21</v>
-      </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
       </c>
       <c r="AJ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM9" t="n">
         <v>140</v>
       </c>
-      <c r="AK9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>250</v>
-      </c>
       <c r="AN9" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.98</v>
+        <v>4.9</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>1.99</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="M10" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Draih</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.38</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>2.16</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.86</v>
       </c>
       <c r="W11" t="n">
-        <v>3.3</v>
+        <v>1.32</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>27</v>
       </c>
-      <c r="Y11" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.78</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="X12" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17</v>
       </c>
-      <c r="AA12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>120</v>
       </c>
-      <c r="AF12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>60</v>
-      </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG13" t="n">
         <v>16.5</v>
       </c>
-      <c r="G13" t="n">
-        <v>18</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X13" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>60</v>
-      </c>
       <c r="AI13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL13" t="n">
         <v>70</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>540</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>420</v>
-      </c>
       <c r="AM13" t="n">
-        <v>520</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NK Celje</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>1.29</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>1.31</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>13.5</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>1.77</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84</v>
+        <v>4.2</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AA15" t="n">
-        <v>290</v>
+        <v>690</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>9.4</v>
       </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>4.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.1</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>5.4</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="M16" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="P16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.61</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.76</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y16" t="n">
         <v>9.4</v>
       </c>
-      <c r="Y16" t="n">
-        <v>6.6</v>
-      </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="AA16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG16" t="n">
         <v>23</v>
       </c>
-      <c r="AB16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>22</v>
-      </c>
       <c r="AH16" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="AK16" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="V17" t="n">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AA17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>38</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>85</v>
-      </c>
       <c r="AK17" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.62</v>
+        <v>7.8</v>
       </c>
       <c r="G18" t="n">
+        <v>8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.63</v>
       </c>
-      <c r="H18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>3.1</v>
       </c>
       <c r="W18" t="n">
-        <v>2.58</v>
+        <v>1.14</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH18" t="n">
         <v>22</v>
       </c>
-      <c r="Z18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM18" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN18" t="n">
         <v>130</v>
       </c>
-      <c r="AN18" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO18" t="n">
-        <v>110</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.28</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.56</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>680</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE19" t="n">
         <v>55</v>
       </c>
-      <c r="AE19" t="n">
-        <v>290</v>
-      </c>
       <c r="AF19" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
-        <v>2.08</v>
+        <v>9.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
         <v>10</v>
       </c>
-      <c r="AE20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>65</v>
+        <v>7.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.1</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.84</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16</v>
-      </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="AJ21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AN21" t="n">
         <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>16.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.98</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>2.72</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
         <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AK22" t="n">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="AL22" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>24</v>
       </c>
       <c r="AA23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="G24" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.47</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>2.44</v>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="V24" t="n">
-        <v>3.1</v>
+        <v>1.72</v>
       </c>
       <c r="W24" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AB24" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AK24" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="AL24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="X25" t="n">
         <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL25" t="n">
         <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -3893,39 +3893,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="G26" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="H26" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="J26" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K26" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
@@ -3940,85 +3940,85 @@
         <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="V26" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W26" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="n">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
         <v>34</v>
       </c>
-      <c r="AE26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>29</v>
-      </c>
       <c r="AI26" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK26" t="n">
         <v>15.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,935 +4028,125 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.88</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>3.15</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
-        <v>2.94</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>6.6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
         <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.48</v>
+        <v>2.34</v>
       </c>
       <c r="X27" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AN27" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Remo</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Independiente Yumbo</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>190</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H31" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>560</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Botafogo FR</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X32" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.12</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.7</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN2" t="n">
         <v>14.5</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>5.4</v>
+        <v>1.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>200</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>270</v>
       </c>
       <c r="J3" t="n">
-        <v>2.98</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>28</v>
       </c>
       <c r="L3" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>2.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>22</v>
       </c>
       <c r="X3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>44</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="AK3" t="n">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>510</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.1</v>
+        <v>90</v>
       </c>
       <c r="G4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.89</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>2.32</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>16.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>4.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1.91</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>1.97</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>2.72</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>2.02</v>
       </c>
       <c r="W5" t="n">
-        <v>2.46</v>
+        <v>1.21</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>4.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.6</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Atletico FC Cali</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.26</v>
+        <v>5.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>1.78</v>
       </c>
       <c r="I6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>15.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>830</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AI6" t="n">
         <v>55</v>
       </c>
-      <c r="AE6" t="n">
-        <v>360</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>230</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.7</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S7" t="n">
         <v>4.4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="T7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.98</v>
       </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
         <v>22</v>
       </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AO7" t="n">
         <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>1.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>3.2</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>7.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>300</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN8" t="n">
-        <v>500</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="H9" t="n">
         <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.98</v>
+        <v>2.62</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>24</v>
       </c>
       <c r="AA9" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>2.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>2.86</v>
       </c>
       <c r="H10" t="n">
-        <v>8.6</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>2.84</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.12</v>
+        <v>1.54</v>
       </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>80</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE10" t="n">
         <v>34</v>
       </c>
-      <c r="AE10" t="n">
-        <v>150</v>
-      </c>
       <c r="AF10" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.2</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>210</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1868,84 +1868,84 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.79</v>
-      </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
         <v>8.4</v>
@@ -1954,13 +1954,13 @@
         <v>7.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,13 +1969,13 @@
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK11" t="n">
         <v>28</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>46</v>
@@ -1984,10 +1984,10 @@
         <v>130</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.98</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="O12" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH12" t="n">
         <v>23</v>
       </c>
-      <c r="AA12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
       <c r="AI12" t="n">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AL12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>10.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="J13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S13" t="n">
         <v>3.3</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>3.65</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AE13" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>34</v>
       </c>
-      <c r="AF13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>6.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.35</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
         <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,530 +2408,125 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.7</v>
       </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S15" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>80</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>600</v>
+        <v>14.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>570</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Botafogo FR</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="X17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X18" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.32</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>17.5</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>5.3</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.7</v>
       </c>
       <c r="AC2" t="n">
         <v>7.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>150</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AM2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>14.5</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>7.8</v>
       </c>
       <c r="I3" t="n">
-        <v>270</v>
+        <v>8.4</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>28</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>8.800000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="O3" t="n">
-        <v>1.12</v>
+        <v>1.64</v>
       </c>
       <c r="P3" t="n">
-        <v>2.82</v>
+        <v>1.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>22</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>5.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>44</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Internacional de Palmira</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>2.34</v>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>2.48</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>2.86</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>3.05</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
-        <v>4.4</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.28</v>
+        <v>3.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>6.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>16.5</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.6</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.8</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Remo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
         <v>50</v>
       </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AJ5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN5" t="n">
         <v>50</v>
       </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>100</v>
-      </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atletico FC Cali</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.8</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>2.52</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.85</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>2.48</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>EC Vitoria Salvador</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>32</v>
       </c>
-      <c r="AE8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>28</v>
-      </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Internacional de Palmira</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.46</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,801 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>2.86</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.84</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.35</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.25</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.3</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.54</v>
-      </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Independiente Yumbo</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SE Palmeiras</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>EC Vitoria Salvador</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>510</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>240</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Gremio</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Botafogo FR</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
